--- a/flipper_test_cases_excel.xlsx
+++ b/flipper_test_cases_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Documents\GitHub\Flipper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3182387C-2451-4906-BE71-9C7A369DAAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E3CEA-92E2-4A54-87CA-CA6334D2EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C147AE23-4FCE-4710-9E9A-276E5F5B37D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="20">
   <si>
     <t>buy_price_max</t>
   </si>
@@ -80,6 +80,32 @@
     <t>Explanation</t>
   </si>
   <si>
+    <t>test_case</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test case #2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Caerleon shows profits and entries in table since it is fresh.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -99,11 +125,65 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> most profitable in FS, descending order: normal-&gt;masterpiece (same qualities). Caerleon profitable but outdated so shouldn't show. BM difference shows profit but outdated.</t>
+      <t xml:space="preserve"> most profitable in FS: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Caerleon shows outdated profits but no entries in table since outdated.</t>
     </r>
   </si>
   <si>
-    <t>test_case</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test case #4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-normal, masterpiece-good, excellent-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh (in the columns the highest possible profits for Caerleon are shown). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tooltip on Caerleon Profit need to say that it is the highest possible profit for the same city quality (unknown to which quality buy order in BM).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test case #3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: masterpiece-normal, excellent-good, outstanding-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh. Caerleon profit showing biggest possible profits that can be made with thesame city quality in Caerleon.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -279,10 +359,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,11 +678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D51AD6-84BB-4820-9F9C-48A5283B3F69}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +700,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -673,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -696,11 +776,13 @@
         <v>10</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -719,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>10</v>
@@ -728,6 +810,8 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -746,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>10</v>
@@ -755,6 +839,8 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -773,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>10</v>
@@ -782,6 +868,8 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -800,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>10</v>
@@ -809,6 +897,8 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -816,7 +906,7 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -828,8 +918,8 @@
       <c r="E9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="9">
-        <v>1</v>
+      <c r="F9" s="13">
+        <v>5</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>10</v>
@@ -838,6 +928,8 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -845,7 +937,7 @@
       </c>
       <c r="B10" s="9">
         <f t="shared" ref="B10:B23" ca="1" si="0">RANDBETWEEN(100,300)</f>
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" ref="C10:C23" ca="1" si="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -857,12 +949,18 @@
       <c r="E10" s="9">
         <v>2</v>
       </c>
-      <c r="F10" s="9">
-        <v>1</v>
+      <c r="F10" s="14">
+        <v>4</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -870,11 +968,11 @@
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>11</v>
@@ -882,12 +980,18 @@
       <c r="E11" s="9">
         <v>3</v>
       </c>
-      <c r="F11" s="9">
-        <v>1</v>
+      <c r="F11" s="15">
+        <v>3</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -895,7 +999,7 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -907,12 +1011,18 @@
       <c r="E12" s="9">
         <v>4</v>
       </c>
-      <c r="F12" s="9">
-        <v>1</v>
+      <c r="F12" s="16">
+        <v>2</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -920,7 +1030,7 @@
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -932,7 +1042,7 @@
       <c r="E13" s="9">
         <v>5</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="17">
         <v>1</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -945,7 +1055,7 @@
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -970,7 +1080,7 @@
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -995,11 +1105,11 @@
       </c>
       <c r="B16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>294</v>
+        <v>104</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>12</v>
@@ -1014,17 +1124,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>1</v>
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>12</v>
@@ -1039,13 +1149,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>1</v>
       </c>
       <c r="B18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1064,13 +1174,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>1</v>
       </c>
       <c r="B19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1089,13 +1199,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>1</v>
       </c>
       <c r="B20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1114,13 +1224,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>1</v>
       </c>
       <c r="B21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1139,13 +1249,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>1</v>
       </c>
       <c r="B22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1164,17 +1274,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>1</v>
       </c>
       <c r="B23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>13</v>
@@ -1189,9 +1299,1650 @@
         <v>9</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" s="13">
+        <v>100</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="9">
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>2</v>
+      </c>
+      <c r="B30" s="14">
+        <v>150</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2</v>
+      </c>
+      <c r="F30" s="9">
+        <v>2</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15">
+        <v>200</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="9">
+        <v>3</v>
+      </c>
+      <c r="F31" s="9">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="16">
+        <v>250</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="9">
+        <v>4</v>
+      </c>
+      <c r="F32" s="9">
+        <v>4</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>2</v>
+      </c>
+      <c r="B33" s="17">
+        <v>300</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="9">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9">
+        <v>5</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>2</v>
+      </c>
+      <c r="B34" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>163</v>
+      </c>
+      <c r="C34" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13">
+        <v>77</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>2</v>
+      </c>
+      <c r="B35" s="9">
+        <f t="shared" ref="B35:B48" ca="1" si="2">RANDBETWEEN(100,300)</f>
+        <v>199</v>
+      </c>
+      <c r="C35" s="9" t="str">
+        <f t="shared" ref="C35:C48" ca="1" si="3">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14">
+        <v>130</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>2</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9">
+        <v>3</v>
+      </c>
+      <c r="F36" s="15">
+        <v>183</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="9">
+        <v>4</v>
+      </c>
+      <c r="F37" s="16">
+        <v>236</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>2</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9">
+        <v>5</v>
+      </c>
+      <c r="F38" s="17">
+        <v>289</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13">
+        <v>78</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>2</v>
+      </c>
+      <c r="B40" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="C40" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9">
+        <v>2</v>
+      </c>
+      <c r="F40" s="14">
+        <v>131</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>2</v>
+      </c>
+      <c r="B41" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9">
+        <v>3</v>
+      </c>
+      <c r="F41" s="15">
+        <v>184</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>2</v>
+      </c>
+      <c r="B42" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4</v>
+      </c>
+      <c r="F42" s="16">
+        <v>237</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>2</v>
+      </c>
+      <c r="B43" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9">
+        <v>5</v>
+      </c>
+      <c r="F43" s="17">
+        <v>290</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>2</v>
+      </c>
+      <c r="B44" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="C44" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>79</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="9">
+        <v>2</v>
+      </c>
+      <c r="F45" s="14">
+        <v>132</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>206</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3</v>
+      </c>
+      <c r="F46" s="15">
+        <v>185</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>2</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="C47" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="9">
+        <v>4</v>
+      </c>
+      <c r="F47" s="16">
+        <v>238</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>2</v>
+      </c>
+      <c r="B48" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>222</v>
+      </c>
+      <c r="C48" s="9" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>"old"</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="9">
+        <v>5</v>
+      </c>
+      <c r="F48" s="17">
+        <v>291</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="13">
+        <v>300</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="9">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
+        <v>3</v>
+      </c>
+      <c r="B55" s="14">
+        <v>250</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="9">
+        <v>2</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="15">
+        <v>200</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="9">
+        <v>3</v>
+      </c>
+      <c r="F56" s="9">
+        <v>3</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
+        <v>3</v>
+      </c>
+      <c r="B57" s="16">
+        <v>150</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4</v>
+      </c>
+      <c r="F57" s="9">
+        <v>4</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
+        <v>3</v>
+      </c>
+      <c r="B58" s="17">
+        <v>100</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="9">
+        <v>5</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
+        <v>3</v>
+      </c>
+      <c r="B59" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>132</v>
+      </c>
+      <c r="C59" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="9">
+        <v>1</v>
+      </c>
+      <c r="F59" s="13">
+        <v>289</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
+        <v>3</v>
+      </c>
+      <c r="B60" s="9">
+        <f t="shared" ref="B60:B73" ca="1" si="4">RANDBETWEEN(100,300)</f>
+        <v>268</v>
+      </c>
+      <c r="C60" s="9" t="str">
+        <f t="shared" ref="C60:C73" ca="1" si="5">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="9">
+        <v>2</v>
+      </c>
+      <c r="F60" s="14">
+        <v>236</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
+        <v>3</v>
+      </c>
+      <c r="B61" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>292</v>
+      </c>
+      <c r="C61" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="9">
+        <v>3</v>
+      </c>
+      <c r="F61" s="15">
+        <v>183</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
+        <v>3</v>
+      </c>
+      <c r="B62" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>266</v>
+      </c>
+      <c r="C62" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="9">
+        <v>4</v>
+      </c>
+      <c r="F62" s="16">
+        <v>130</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
+        <v>3</v>
+      </c>
+      <c r="B63" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C63" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="9">
+        <v>5</v>
+      </c>
+      <c r="F63" s="17">
+        <v>77</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
+        <v>3</v>
+      </c>
+      <c r="B64" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>132</v>
+      </c>
+      <c r="C64" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="9">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
+        <v>290</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
+        <v>3</v>
+      </c>
+      <c r="B65" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="C65" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="9">
+        <v>2</v>
+      </c>
+      <c r="F65" s="14">
+        <v>237</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
+        <v>3</v>
+      </c>
+      <c r="B66" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>204</v>
+      </c>
+      <c r="C66" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="9">
+        <v>3</v>
+      </c>
+      <c r="F66" s="15">
+        <v>183</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
+        <v>3</v>
+      </c>
+      <c r="B67" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="C67" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="9">
+        <v>4</v>
+      </c>
+      <c r="F67" s="16">
+        <v>131</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
+        <v>3</v>
+      </c>
+      <c r="B68" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="C68" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="9">
+        <v>5</v>
+      </c>
+      <c r="F68" s="17">
+        <v>78</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
+        <v>3</v>
+      </c>
+      <c r="B69" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="C69" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="9">
+        <v>1</v>
+      </c>
+      <c r="F69" s="13">
+        <v>291</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
+        <v>3</v>
+      </c>
+      <c r="B70" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>215</v>
+      </c>
+      <c r="C70" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="9">
+        <v>2</v>
+      </c>
+      <c r="F70" s="14">
+        <v>238</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
+        <v>3</v>
+      </c>
+      <c r="B71" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="C71" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3</v>
+      </c>
+      <c r="F71" s="15">
+        <v>185</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
+        <v>3</v>
+      </c>
+      <c r="B72" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>272</v>
+      </c>
+      <c r="C72" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"old"</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="9">
+        <v>4</v>
+      </c>
+      <c r="F72" s="16">
+        <v>132</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
+        <v>3</v>
+      </c>
+      <c r="B73" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>239</v>
+      </c>
+      <c r="C73" s="9" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="9">
+        <v>5</v>
+      </c>
+      <c r="F73" s="17">
+        <v>79</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
+        <v>4</v>
+      </c>
+      <c r="B79" s="13">
+        <v>300</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="9">
+        <v>1</v>
+      </c>
+      <c r="F79" s="9">
+        <v>1</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
+        <v>4</v>
+      </c>
+      <c r="B80" s="14">
+        <v>250</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="9">
+        <v>2</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
+        <v>4</v>
+      </c>
+      <c r="B81" s="15">
+        <v>200</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="9">
+        <v>3</v>
+      </c>
+      <c r="F81" s="9">
+        <v>3</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <v>4</v>
+      </c>
+      <c r="B82" s="16">
+        <v>150</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="9">
+        <v>4</v>
+      </c>
+      <c r="F82" s="9">
+        <v>4</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="19"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
+        <v>4</v>
+      </c>
+      <c r="B83" s="17">
+        <v>100</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="9">
+        <v>5</v>
+      </c>
+      <c r="F83" s="9">
+        <v>5</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="19"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
+        <v>4</v>
+      </c>
+      <c r="B84" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>300</v>
+      </c>
+      <c r="C84" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1</v>
+      </c>
+      <c r="F84" s="13">
+        <v>77</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="18"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
+        <v>4</v>
+      </c>
+      <c r="B85" s="9">
+        <f t="shared" ref="B85:B98" ca="1" si="6">RANDBETWEEN(100,300)</f>
+        <v>153</v>
+      </c>
+      <c r="C85" s="9" t="str">
+        <f t="shared" ref="C85:C98" ca="1" si="7">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="9">
+        <v>2</v>
+      </c>
+      <c r="F85" s="14">
+        <v>236</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
+        <v>4</v>
+      </c>
+      <c r="B86" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>292</v>
+      </c>
+      <c r="C86" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="9">
+        <v>3</v>
+      </c>
+      <c r="F86" s="15">
+        <v>183</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="18"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
+        <v>4</v>
+      </c>
+      <c r="B87" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="C87" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="9">
+        <v>4</v>
+      </c>
+      <c r="F87" s="16">
+        <v>130</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
+        <v>4</v>
+      </c>
+      <c r="B88" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>184</v>
+      </c>
+      <c r="C88" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="9">
+        <v>5</v>
+      </c>
+      <c r="F88" s="17">
+        <v>74</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
+        <v>4</v>
+      </c>
+      <c r="B89" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="C89" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"old"</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1</v>
+      </c>
+      <c r="F89" s="13">
+        <v>78</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
+        <v>4</v>
+      </c>
+      <c r="B90" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="C90" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="9">
+        <v>2</v>
+      </c>
+      <c r="F90" s="14">
+        <v>237</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
+        <v>4</v>
+      </c>
+      <c r="B91" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>237</v>
+      </c>
+      <c r="C91" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="9">
+        <v>3</v>
+      </c>
+      <c r="F91" s="15">
+        <v>183</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
+        <v>4</v>
+      </c>
+      <c r="B92" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>146</v>
+      </c>
+      <c r="C92" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="9">
+        <v>4</v>
+      </c>
+      <c r="F92" s="16">
+        <v>131</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
+        <v>4</v>
+      </c>
+      <c r="B93" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>298</v>
+      </c>
+      <c r="C93" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="9">
+        <v>5</v>
+      </c>
+      <c r="F93" s="17">
+        <v>75</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
+        <v>4</v>
+      </c>
+      <c r="B94" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>134</v>
+      </c>
+      <c r="C94" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1</v>
+      </c>
+      <c r="F94" s="13">
+        <v>79</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
+        <v>4</v>
+      </c>
+      <c r="B95" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>173</v>
+      </c>
+      <c r="C95" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="9">
+        <v>2</v>
+      </c>
+      <c r="F95" s="14">
+        <v>238</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
+        <v>4</v>
+      </c>
+      <c r="B96" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>208</v>
+      </c>
+      <c r="C96" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"old"</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="9">
+        <v>3</v>
+      </c>
+      <c r="F96" s="15">
+        <v>185</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
+        <v>4</v>
+      </c>
+      <c r="B97" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>216</v>
+      </c>
+      <c r="C97" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"old"</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="9">
+        <v>4</v>
+      </c>
+      <c r="F97" s="16">
+        <v>132</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
+        <v>4</v>
+      </c>
+      <c r="B98" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>157</v>
+      </c>
+      <c r="C98" s="9" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>"old"</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="9">
+        <v>5</v>
+      </c>
+      <c r="F98" s="17">
+        <v>76</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H4:K9"/>
+  <mergeCells count="4">
+    <mergeCell ref="H4:M12"/>
+    <mergeCell ref="H29:M37"/>
+    <mergeCell ref="H54:M62"/>
+    <mergeCell ref="H79:M87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flipper_test_cases_excel.xlsx
+++ b/flipper_test_cases_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Documents\GitHub\Flipper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50E3CEA-92E2-4A54-87CA-CA6334D2EBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA62C3BF-3F16-4025-99E3-98E9521F5749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C147AE23-4FCE-4710-9E9A-276E5F5B37D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="31">
   <si>
     <t>buy_price_max</t>
   </si>
@@ -92,7 +92,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Test case #2:</t>
+      <t xml:space="preserve">Test case #6: </t>
     </r>
     <r>
       <rPr>
@@ -102,8 +102,106 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Caerleon shows profits and entries in table since it is fresh.</t>
+      <t>same as test case #5 except the BM order diference is now fresh so its age should show up.</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test case #7: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>best possible combination is normal-normal, masterpiece-good, excellent-outstanding but since normal quality in the cities is "old" the best fresh combination is masterpiece-normal, excellent-good and outstanding-outstanding which is what should show up. FS most profitable. Caerleon unprofitable and old. BM difference old and outdated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test case #8: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">same as test case #7 but now masterpiece in FS is "old", so its best combination becomes excellent-normal and outstanding-good. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test case #9: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the most profitable trades are in descending order: masterpiece-outstanding for Th and excellent-outstanding for FS. Caerleon unprofitable and outdated, BM difference outdated and old.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Random test case: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>update a cell to generate a new random test case. Compare to the results to see if it functions as expected.</t>
+    </r>
+  </si>
+  <si>
+    <t>"2020-07-10T13:15:00"</t>
+  </si>
+  <si>
+    <t>"2020-07-16T13:15:00"</t>
   </si>
   <si>
     <r>
@@ -125,7 +223,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> most profitable in FS: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Caerleon shows outdated profits but no entries in table since outdated.</t>
+      <t xml:space="preserve"> most profitable in FS: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Profits in Caerleon outdated.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test case #3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: masterpiece-normal, excellent-good, outstanding-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh. Caerleon profit shows masterpiece since it is the biggest possible profit.</t>
     </r>
   </si>
   <si>
@@ -148,18 +269,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-normal, masterpiece-good, excellent-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh (in the columns the highest possible profits for Caerleon are shown). </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tooltip on Caerleon Profit need to say that it is the highest possible profit for the same city quality (unknown to which quality buy order in BM).</t>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-normal, masterpiece-good, excellent-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh (in the columns the highest possible profits for Caerleon are shown, which should be masterpiece).</t>
     </r>
   </si>
   <si>
@@ -172,7 +282,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Test case #3:</t>
+      <t xml:space="preserve">Test case #10: </t>
     </r>
     <r>
       <rPr>
@@ -182,7 +292,91 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: masterpiece-normal, excellent-good, outstanding-outstanding. BM difference negative so should just show outdated and very old. Caerleon shows profits and entry in table since it is fresh. Caerleon profit showing biggest possible profits that can be made with thesame city quality in Caerleon.</t>
+      <t>Th: normal-normal, masterpiece-outstanding, excellent-excellent. FS: masterpiece-normal, excellent-outstanding. Caerleon: masterpiece-normal. Caerleon profit displays masterpiece as it is the highest profitable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test case #11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same as test case #10 but the Th: normal-normal. Caerleon profits still showign masterpiece.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case #12: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most profitable in FS: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Profits in Caerleon outdated but still showing masterpiece as it is less than a week old.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test case #2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> most profitable in Caerleon-&gt;Th: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Caerleon shows profits and entries in table since it is fresh (both in the same pattern and same quality comparison).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test case #5: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>same as test case #4 except the BM order diference is now positive so should show up the difference (outdated), but is still very old.</t>
     </r>
   </si>
 </sst>
@@ -309,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -358,10 +552,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,11 +890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D51AD6-84BB-4820-9F9C-48A5283B3F69}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N380"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I98" sqref="I98"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,14 +987,14 @@
       <c r="G4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="H4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
@@ -806,12 +1018,12 @@
       <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -835,12 +1047,12 @@
       <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
@@ -864,12 +1076,12 @@
       <c r="G7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -893,12 +1105,12 @@
       <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
@@ -906,11 +1118,11 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>144</v>
+        <v>220</v>
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>11</v>
@@ -924,12 +1136,12 @@
       <c r="G9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
@@ -937,11 +1149,11 @@
       </c>
       <c r="B10" s="9">
         <f t="shared" ref="B10:B23" ca="1" si="0">RANDBETWEEN(100,300)</f>
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" ref="C10:C23" ca="1" si="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>11</v>
@@ -955,12 +1167,12 @@
       <c r="G10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
@@ -968,7 +1180,7 @@
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -986,12 +1198,12 @@
       <c r="G11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -999,7 +1211,7 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1017,12 +1229,12 @@
       <c r="G12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -1030,7 +1242,7 @@
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1055,11 +1267,11 @@
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -1080,7 +1292,7 @@
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1105,11 +1317,11 @@
       </c>
       <c r="B16" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>12</v>
@@ -1130,11 +1342,11 @@
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>12</v>
@@ -1155,11 +1367,11 @@
       </c>
       <c r="B18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>12</v>
@@ -1180,11 +1392,11 @@
       </c>
       <c r="B19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>13</v>
@@ -1205,11 +1417,11 @@
       </c>
       <c r="B20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>13</v>
@@ -1230,11 +1442,11 @@
       </c>
       <c r="B21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>13</v>
@@ -1255,11 +1467,11 @@
       </c>
       <c r="B22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>13</v>
@@ -1280,7 +1492,7 @@
       </c>
       <c r="B23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1321,14 +1533,14 @@
       <c r="G29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
+      <c r="H29" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
@@ -1352,12 +1564,12 @@
       <c r="G30" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
@@ -1381,12 +1593,12 @@
       <c r="G31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
@@ -1410,12 +1622,12 @@
       <c r="G32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
@@ -1439,12 +1651,12 @@
       <c r="G33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -1452,11 +1664,11 @@
       </c>
       <c r="B34" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C34" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>11</v>
@@ -1465,17 +1677,17 @@
         <v>1</v>
       </c>
       <c r="F34" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
@@ -1483,7 +1695,7 @@
       </c>
       <c r="B35" s="9">
         <f t="shared" ref="B35:B48" ca="1" si="2">RANDBETWEEN(100,300)</f>
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" ref="C35:C48" ca="1" si="3">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -1496,17 +1708,17 @@
         <v>2</v>
       </c>
       <c r="F35" s="14">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -1514,11 +1726,11 @@
       </c>
       <c r="B36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>11</v>
@@ -1527,17 +1739,17 @@
         <v>3</v>
       </c>
       <c r="F36" s="15">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -1545,11 +1757,11 @@
       </c>
       <c r="B37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>11</v>
@@ -1558,17 +1770,17 @@
         <v>4</v>
       </c>
       <c r="F37" s="16">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
@@ -1576,11 +1788,11 @@
       </c>
       <c r="B38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>11</v>
@@ -1589,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="F38" s="17">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G38" s="12" t="s">
         <v>9</v>
@@ -1601,7 +1813,7 @@
       </c>
       <c r="B39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1614,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="13">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>9</v>
@@ -1626,11 +1838,11 @@
       </c>
       <c r="B40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>12</v>
@@ -1639,7 +1851,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="14">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>9</v>
@@ -1651,7 +1863,7 @@
       </c>
       <c r="B41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1664,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="15">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G41" s="12" t="s">
         <v>9</v>
@@ -1676,11 +1888,11 @@
       </c>
       <c r="B42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>12</v>
@@ -1689,7 +1901,7 @@
         <v>4</v>
       </c>
       <c r="F42" s="16">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G42" s="12" t="s">
         <v>9</v>
@@ -1701,7 +1913,7 @@
       </c>
       <c r="B43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1714,7 +1926,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="17">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>9</v>
@@ -1726,7 +1938,7 @@
       </c>
       <c r="B44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1739,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="13">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="12" t="s">
         <v>9</v>
@@ -1751,7 +1963,7 @@
       </c>
       <c r="B45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1764,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="14">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="12" t="s">
         <v>9</v>
@@ -1780,7 +1992,7 @@
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>13</v>
@@ -1789,7 +2001,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="15">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="12" t="s">
         <v>9</v>
@@ -1801,11 +2013,11 @@
       </c>
       <c r="B47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>13</v>
@@ -1814,7 +2026,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="16">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>9</v>
@@ -1826,7 +2038,7 @@
       </c>
       <c r="B48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1839,7 +2051,7 @@
         <v>5</v>
       </c>
       <c r="F48" s="17">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>9</v>
@@ -1867,14 +2079,14 @@
       <c r="G54" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H54" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
+      <c r="H54" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
@@ -1898,12 +2110,12 @@
       <c r="G55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -1927,12 +2139,12 @@
       <c r="G56" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
@@ -1956,12 +2168,12 @@
       <c r="G57" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
@@ -1985,12 +2197,12 @@
       <c r="G58" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
@@ -1998,11 +2210,11 @@
       </c>
       <c r="B59" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C59" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>11</v>
@@ -2016,12 +2228,12 @@
       <c r="G59" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
@@ -2029,11 +2241,11 @@
       </c>
       <c r="B60" s="9">
         <f t="shared" ref="B60:B73" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" ref="C60:C73" ca="1" si="5">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>11</v>
@@ -2047,12 +2259,12 @@
       <c r="G60" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
@@ -2060,7 +2272,7 @@
       </c>
       <c r="B61" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2078,12 +2290,12 @@
       <c r="G61" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -2091,7 +2303,7 @@
       </c>
       <c r="B62" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2109,12 +2321,12 @@
       <c r="G62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
@@ -2122,11 +2334,11 @@
       </c>
       <c r="B63" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>11</v>
@@ -2147,11 +2359,11 @@
       </c>
       <c r="B64" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>12</v>
@@ -2172,7 +2384,7 @@
       </c>
       <c r="B65" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2197,7 +2409,7 @@
       </c>
       <c r="B66" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2222,11 +2434,11 @@
       </c>
       <c r="B67" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>12</v>
@@ -2247,7 +2459,7 @@
       </c>
       <c r="B68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2272,7 +2484,7 @@
       </c>
       <c r="B69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2297,11 +2509,11 @@
       </c>
       <c r="B70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>13</v>
@@ -2322,11 +2534,11 @@
       </c>
       <c r="B71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>13</v>
@@ -2347,11 +2559,11 @@
       </c>
       <c r="B72" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>13</v>
@@ -2372,7 +2584,7 @@
       </c>
       <c r="B73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2413,14 +2625,14 @@
       <c r="G79" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H79" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
+      <c r="H79" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
@@ -2444,12 +2656,12 @@
       <c r="G80" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
@@ -2473,12 +2685,12 @@
       <c r="G81" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -2502,12 +2714,12 @@
       <c r="G82" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H82" s="18"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
@@ -2531,12 +2743,12 @@
       <c r="G83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="18"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
@@ -2544,7 +2756,7 @@
       </c>
       <c r="B84" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C84" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -2562,12 +2774,12 @@
       <c r="G84" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H84" s="18"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
@@ -2575,11 +2787,11 @@
       </c>
       <c r="B85" s="9">
         <f t="shared" ref="B85:B98" ca="1" si="6">RANDBETWEEN(100,300)</f>
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" ref="C85:C98" ca="1" si="7">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>11</v>
@@ -2593,12 +2805,12 @@
       <c r="G85" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H85" s="18"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="19"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -2606,11 +2818,11 @@
       </c>
       <c r="B86" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>11</v>
@@ -2624,12 +2836,12 @@
       <c r="G86" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="18"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="19"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
@@ -2637,11 +2849,11 @@
       </c>
       <c r="B87" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>11</v>
@@ -2655,12 +2867,12 @@
       <c r="G87" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H87" s="18"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="19"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
@@ -2668,7 +2880,7 @@
       </c>
       <c r="B88" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2693,11 +2905,11 @@
       </c>
       <c r="B89" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>12</v>
@@ -2718,11 +2930,11 @@
       </c>
       <c r="B90" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>12</v>
@@ -2743,11 +2955,11 @@
       </c>
       <c r="B91" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>12</v>
@@ -2768,11 +2980,11 @@
       </c>
       <c r="B92" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>12</v>
@@ -2793,7 +3005,7 @@
       </c>
       <c r="B93" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>298</v>
+        <v>245</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2818,11 +3030,11 @@
       </c>
       <c r="B94" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>13</v>
@@ -2843,11 +3055,11 @@
       </c>
       <c r="B95" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>173</v>
+        <v>274</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>13</v>
@@ -2868,11 +3080,11 @@
       </c>
       <c r="B96" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>13</v>
@@ -2887,17 +3099,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>4</v>
       </c>
       <c r="B97" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>13</v>
@@ -2912,13 +3124,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>4</v>
       </c>
       <c r="B98" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2937,12 +3149,5445 @@
         <v>9</v>
       </c>
     </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
+        <v>5</v>
+      </c>
+      <c r="B104" s="13">
+        <v>300</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1</v>
+      </c>
+      <c r="F104" s="13">
+        <v>301</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="23"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
+        <v>5</v>
+      </c>
+      <c r="B105" s="14">
+        <v>250</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="9">
+        <v>2</v>
+      </c>
+      <c r="F105" s="14">
+        <v>252</v>
+      </c>
+      <c r="G105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="24"/>
+      <c r="I105" s="23"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
+        <v>5</v>
+      </c>
+      <c r="B106" s="15">
+        <v>200</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="9">
+        <v>3</v>
+      </c>
+      <c r="F106" s="15">
+        <v>203</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="24"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
+        <v>5</v>
+      </c>
+      <c r="B107" s="16">
+        <v>150</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="9">
+        <v>4</v>
+      </c>
+      <c r="F107" s="16">
+        <v>154</v>
+      </c>
+      <c r="G107" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="24"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
+        <v>5</v>
+      </c>
+      <c r="B108" s="17">
+        <v>100</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="9">
+        <v>5</v>
+      </c>
+      <c r="F108" s="17">
+        <v>105</v>
+      </c>
+      <c r="G108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="24"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
+        <v>5</v>
+      </c>
+      <c r="B109" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>238</v>
+      </c>
+      <c r="C109" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="9">
+        <v>1</v>
+      </c>
+      <c r="F109" s="9">
+        <v>77</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H109" s="24"/>
+      <c r="I109" s="23"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
+        <v>5</v>
+      </c>
+      <c r="B110" s="9">
+        <f t="shared" ref="B110:B123" ca="1" si="8">RANDBETWEEN(100,300)</f>
+        <v>148</v>
+      </c>
+      <c r="C110" s="9" t="str">
+        <f t="shared" ref="C110:C123" ca="1" si="9">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="9">
+        <v>2</v>
+      </c>
+      <c r="F110" s="9">
+        <v>236</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H110" s="24"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
+        <v>5</v>
+      </c>
+      <c r="B111" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="C111" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9">
+        <v>3</v>
+      </c>
+      <c r="F111" s="9">
+        <v>183</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H111" s="24"/>
+      <c r="I111" s="23"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
+        <v>5</v>
+      </c>
+      <c r="B112" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="C112" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="9">
+        <v>4</v>
+      </c>
+      <c r="F112" s="9">
+        <v>130</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" s="24"/>
+      <c r="I112" s="23"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
+        <v>5</v>
+      </c>
+      <c r="B113" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>226</v>
+      </c>
+      <c r="C113" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="9">
+        <v>5</v>
+      </c>
+      <c r="F113" s="9">
+        <v>74</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
+        <v>5</v>
+      </c>
+      <c r="B114" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>109</v>
+      </c>
+      <c r="C114" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="9">
+        <v>1</v>
+      </c>
+      <c r="F114" s="9">
+        <v>78</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
+        <v>5</v>
+      </c>
+      <c r="B115" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>189</v>
+      </c>
+      <c r="C115" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="9">
+        <v>2</v>
+      </c>
+      <c r="F115" s="9">
+        <v>237</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
+        <v>5</v>
+      </c>
+      <c r="B116" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>183</v>
+      </c>
+      <c r="C116" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="9">
+        <v>3</v>
+      </c>
+      <c r="F116" s="9">
+        <v>183</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
+        <v>5</v>
+      </c>
+      <c r="B117" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="C117" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" s="9">
+        <v>4</v>
+      </c>
+      <c r="F117" s="9">
+        <v>131</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
+        <v>5</v>
+      </c>
+      <c r="B118" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="C118" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="9">
+        <v>5</v>
+      </c>
+      <c r="F118" s="9">
+        <v>75</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
+        <v>5</v>
+      </c>
+      <c r="B119" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="C119" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="9">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9">
+        <v>79</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>5</v>
+      </c>
+      <c r="B120" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>273</v>
+      </c>
+      <c r="C120" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="9">
+        <v>2</v>
+      </c>
+      <c r="F120" s="9">
+        <v>238</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>5</v>
+      </c>
+      <c r="B121" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>299</v>
+      </c>
+      <c r="C121" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="9">
+        <v>3</v>
+      </c>
+      <c r="F121" s="9">
+        <v>185</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>5</v>
+      </c>
+      <c r="B122" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>266</v>
+      </c>
+      <c r="C122" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"old"</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="9">
+        <v>4</v>
+      </c>
+      <c r="F122" s="9">
+        <v>132</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
+        <v>5</v>
+      </c>
+      <c r="B123" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>249</v>
+      </c>
+      <c r="C123" s="9" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="9">
+        <v>5</v>
+      </c>
+      <c r="F123" s="9">
+        <v>76</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
+        <v>6</v>
+      </c>
+      <c r="B129" s="13">
+        <v>300</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="9">
+        <v>1</v>
+      </c>
+      <c r="F129" s="13">
+        <v>301</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
+        <v>6</v>
+      </c>
+      <c r="B130" s="14">
+        <v>250</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="9">
+        <v>2</v>
+      </c>
+      <c r="F130" s="14">
+        <v>252</v>
+      </c>
+      <c r="G130" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H130" s="24"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
+        <v>6</v>
+      </c>
+      <c r="B131" s="15">
+        <v>200</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="9">
+        <v>3</v>
+      </c>
+      <c r="F131" s="15">
+        <v>203</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" s="24"/>
+      <c r="I131" s="23"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <v>6</v>
+      </c>
+      <c r="B132" s="16">
+        <v>150</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="9">
+        <v>4</v>
+      </c>
+      <c r="F132" s="16">
+        <v>154</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="23"/>
+      <c r="J132" s="23"/>
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <v>6</v>
+      </c>
+      <c r="B133" s="17">
+        <v>100</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="9">
+        <v>5</v>
+      </c>
+      <c r="F133" s="17">
+        <v>105</v>
+      </c>
+      <c r="G133" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H133" s="24"/>
+      <c r="I133" s="23"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <v>6</v>
+      </c>
+      <c r="B134" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>132</v>
+      </c>
+      <c r="C134" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="9">
+        <v>1</v>
+      </c>
+      <c r="F134" s="9">
+        <v>77</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H134" s="24"/>
+      <c r="I134" s="23"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="23"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <v>6</v>
+      </c>
+      <c r="B135" s="9">
+        <f t="shared" ref="B135:B148" ca="1" si="10">RANDBETWEEN(100,300)</f>
+        <v>121</v>
+      </c>
+      <c r="C135" s="9" t="str">
+        <f t="shared" ref="C135:C148" ca="1" si="11">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" s="9">
+        <v>2</v>
+      </c>
+      <c r="F135" s="9">
+        <v>236</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" s="24"/>
+      <c r="I135" s="23"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <v>6</v>
+      </c>
+      <c r="B136" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>232</v>
+      </c>
+      <c r="C136" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="9">
+        <v>3</v>
+      </c>
+      <c r="F136" s="9">
+        <v>183</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H136" s="24"/>
+      <c r="I136" s="23"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <v>6</v>
+      </c>
+      <c r="B137" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>278</v>
+      </c>
+      <c r="C137" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="9">
+        <v>4</v>
+      </c>
+      <c r="F137" s="9">
+        <v>130</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H137" s="24"/>
+      <c r="I137" s="23"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <v>6</v>
+      </c>
+      <c r="B138" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>280</v>
+      </c>
+      <c r="C138" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="9">
+        <v>5</v>
+      </c>
+      <c r="F138" s="9">
+        <v>74</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <v>6</v>
+      </c>
+      <c r="B139" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>107</v>
+      </c>
+      <c r="C139" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="9">
+        <v>1</v>
+      </c>
+      <c r="F139" s="9">
+        <v>78</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <v>6</v>
+      </c>
+      <c r="B140" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="C140" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="9">
+        <v>2</v>
+      </c>
+      <c r="F140" s="9">
+        <v>237</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <v>6</v>
+      </c>
+      <c r="B141" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="C141" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="9">
+        <v>3</v>
+      </c>
+      <c r="F141" s="9">
+        <v>183</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <v>6</v>
+      </c>
+      <c r="B142" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>299</v>
+      </c>
+      <c r="C142" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="9">
+        <v>4</v>
+      </c>
+      <c r="F142" s="9">
+        <v>131</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <v>6</v>
+      </c>
+      <c r="B143" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>235</v>
+      </c>
+      <c r="C143" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="9">
+        <v>5</v>
+      </c>
+      <c r="F143" s="9">
+        <v>75</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>6</v>
+      </c>
+      <c r="B144" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>295</v>
+      </c>
+      <c r="C144" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="9">
+        <v>1</v>
+      </c>
+      <c r="F144" s="9">
+        <v>79</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <v>6</v>
+      </c>
+      <c r="B145" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>272</v>
+      </c>
+      <c r="C145" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="9">
+        <v>2</v>
+      </c>
+      <c r="F145" s="9">
+        <v>238</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <v>6</v>
+      </c>
+      <c r="B146" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="C146" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="9">
+        <v>3</v>
+      </c>
+      <c r="F146" s="9">
+        <v>185</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <v>6</v>
+      </c>
+      <c r="B147" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>215</v>
+      </c>
+      <c r="C147" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" s="9">
+        <v>4</v>
+      </c>
+      <c r="F147" s="9">
+        <v>132</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <v>6</v>
+      </c>
+      <c r="B148" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>278</v>
+      </c>
+      <c r="C148" s="9" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>"old"</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" s="9">
+        <v>5</v>
+      </c>
+      <c r="F148" s="9">
+        <v>76</v>
+      </c>
+      <c r="G148" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
+        <v>7</v>
+      </c>
+      <c r="B154" s="13">
+        <v>300</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="9">
+        <v>1</v>
+      </c>
+      <c r="F154" s="9">
+        <v>1</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
+        <v>7</v>
+      </c>
+      <c r="B155" s="14">
+        <v>250</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="9">
+        <v>2</v>
+      </c>
+      <c r="F155" s="9">
+        <v>2</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="24"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="23"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
+        <v>7</v>
+      </c>
+      <c r="B156" s="15">
+        <v>200</v>
+      </c>
+      <c r="C156" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="9">
+        <v>3</v>
+      </c>
+      <c r="F156" s="9">
+        <v>3</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="24"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="23"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
+        <v>7</v>
+      </c>
+      <c r="B157" s="16">
+        <v>150</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="9">
+        <v>4</v>
+      </c>
+      <c r="F157" s="9">
+        <v>4</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="24"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="23"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
+        <v>7</v>
+      </c>
+      <c r="B158" s="17">
+        <v>100</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="9">
+        <v>5</v>
+      </c>
+      <c r="F158" s="9">
+        <v>5</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="24"/>
+      <c r="I158" s="23"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
+        <v>7</v>
+      </c>
+      <c r="B159" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>158</v>
+      </c>
+      <c r="C159" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D159" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="9">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9">
+        <v>999</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="23"/>
+      <c r="I159" s="23"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="23"/>
+      <c r="L159" s="23"/>
+      <c r="M159" s="23"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
+        <v>7</v>
+      </c>
+      <c r="B160" s="9">
+        <f t="shared" ref="B160:B173" ca="1" si="12">RANDBETWEEN(100,300)</f>
+        <v>131</v>
+      </c>
+      <c r="C160" s="9" t="str">
+        <f t="shared" ref="C160:C173" ca="1" si="13">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="9">
+        <v>2</v>
+      </c>
+      <c r="F160" s="9">
+        <v>999</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="23"/>
+      <c r="I160" s="23"/>
+      <c r="J160" s="23"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
+        <v>7</v>
+      </c>
+      <c r="B161" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>272</v>
+      </c>
+      <c r="C161" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"old"</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="9">
+        <v>3</v>
+      </c>
+      <c r="F161" s="9">
+        <v>999</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H161" s="23"/>
+      <c r="I161" s="23"/>
+      <c r="J161" s="23"/>
+      <c r="K161" s="23"/>
+      <c r="L161" s="23"/>
+      <c r="M161" s="23"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
+        <v>7</v>
+      </c>
+      <c r="B162" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>227</v>
+      </c>
+      <c r="C162" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="9">
+        <v>4</v>
+      </c>
+      <c r="F162" s="9">
+        <v>999</v>
+      </c>
+      <c r="G162" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="23"/>
+      <c r="I162" s="23"/>
+      <c r="J162" s="23"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="23"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
+        <v>7</v>
+      </c>
+      <c r="B163" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="C163" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D163" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="9">
+        <v>5</v>
+      </c>
+      <c r="F163" s="9">
+        <v>999</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>7</v>
+      </c>
+      <c r="B164" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>125</v>
+      </c>
+      <c r="C164" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"old"</v>
+      </c>
+      <c r="D164" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="9">
+        <v>1</v>
+      </c>
+      <c r="F164" s="13">
+        <v>78</v>
+      </c>
+      <c r="G164" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>7</v>
+      </c>
+      <c r="B165" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="C165" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="9">
+        <v>2</v>
+      </c>
+      <c r="F165" s="14">
+        <v>237</v>
+      </c>
+      <c r="G165" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>7</v>
+      </c>
+      <c r="B166" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>269</v>
+      </c>
+      <c r="C166" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"old"</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="9">
+        <v>3</v>
+      </c>
+      <c r="F166" s="15">
+        <v>183</v>
+      </c>
+      <c r="G166" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
+        <v>7</v>
+      </c>
+      <c r="B167" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>118</v>
+      </c>
+      <c r="C167" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"old"</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="9">
+        <v>4</v>
+      </c>
+      <c r="F167" s="16">
+        <v>131</v>
+      </c>
+      <c r="G167" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
+        <v>7</v>
+      </c>
+      <c r="B168" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>162</v>
+      </c>
+      <c r="C168" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="9">
+        <v>5</v>
+      </c>
+      <c r="F168" s="17">
+        <v>75</v>
+      </c>
+      <c r="G168" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
+        <v>7</v>
+      </c>
+      <c r="B169" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="C169" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" s="9">
+        <v>1</v>
+      </c>
+      <c r="F169" s="13">
+        <v>79</v>
+      </c>
+      <c r="G169" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
+        <v>7</v>
+      </c>
+      <c r="B170" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>122</v>
+      </c>
+      <c r="C170" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" s="9">
+        <v>2</v>
+      </c>
+      <c r="F170" s="14">
+        <v>238</v>
+      </c>
+      <c r="G170" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
+        <v>7</v>
+      </c>
+      <c r="B171" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>236</v>
+      </c>
+      <c r="C171" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"old"</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="9">
+        <v>3</v>
+      </c>
+      <c r="F171" s="15">
+        <v>185</v>
+      </c>
+      <c r="G171" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
+        <v>7</v>
+      </c>
+      <c r="B172" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="C172" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="9">
+        <v>4</v>
+      </c>
+      <c r="F172" s="16">
+        <v>132</v>
+      </c>
+      <c r="G172" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
+        <v>7</v>
+      </c>
+      <c r="B173" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>245</v>
+      </c>
+      <c r="C173" s="9" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="9">
+        <v>5</v>
+      </c>
+      <c r="F173" s="17">
+        <v>76</v>
+      </c>
+      <c r="G173" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
+        <v>8</v>
+      </c>
+      <c r="B179" s="13">
+        <v>300</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="9">
+        <v>1</v>
+      </c>
+      <c r="F179" s="9">
+        <v>1</v>
+      </c>
+      <c r="G179" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H179" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I179" s="23"/>
+      <c r="J179" s="23"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="23"/>
+      <c r="M179" s="23"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
+        <v>8</v>
+      </c>
+      <c r="B180" s="14">
+        <v>250</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="9">
+        <v>2</v>
+      </c>
+      <c r="F180" s="9">
+        <v>2</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H180" s="24"/>
+      <c r="I180" s="23"/>
+      <c r="J180" s="23"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="23"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
+        <v>8</v>
+      </c>
+      <c r="B181" s="15">
+        <v>200</v>
+      </c>
+      <c r="C181" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="9">
+        <v>3</v>
+      </c>
+      <c r="F181" s="9">
+        <v>3</v>
+      </c>
+      <c r="G181" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="24"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="23"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
+        <v>8</v>
+      </c>
+      <c r="B182" s="16">
+        <v>150</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D182" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="9">
+        <v>4</v>
+      </c>
+      <c r="F182" s="9">
+        <v>4</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="24"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="23"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
+        <v>8</v>
+      </c>
+      <c r="B183" s="17">
+        <v>100</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="9">
+        <v>5</v>
+      </c>
+      <c r="F183" s="9">
+        <v>5</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="24"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="23"/>
+      <c r="M183" s="23"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
+        <v>8</v>
+      </c>
+      <c r="B184" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>206</v>
+      </c>
+      <c r="C184" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="9">
+        <v>1</v>
+      </c>
+      <c r="F184" s="9">
+        <v>999</v>
+      </c>
+      <c r="G184" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="23"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
+        <v>8</v>
+      </c>
+      <c r="B185" s="9">
+        <f t="shared" ref="B185:B198" ca="1" si="14">RANDBETWEEN(100,300)</f>
+        <v>229</v>
+      </c>
+      <c r="C185" s="9" t="str">
+        <f t="shared" ref="C185:C198" ca="1" si="15">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D185" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="9">
+        <v>2</v>
+      </c>
+      <c r="F185" s="9">
+        <v>999</v>
+      </c>
+      <c r="G185" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H185" s="23"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="23"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="23"/>
+      <c r="M185" s="23"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
+        <v>8</v>
+      </c>
+      <c r="B186" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>249</v>
+      </c>
+      <c r="C186" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D186" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="9">
+        <v>3</v>
+      </c>
+      <c r="F186" s="9">
+        <v>999</v>
+      </c>
+      <c r="G186" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="23"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="23"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="23"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
+        <v>8</v>
+      </c>
+      <c r="B187" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>281</v>
+      </c>
+      <c r="C187" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="9">
+        <v>4</v>
+      </c>
+      <c r="F187" s="9">
+        <v>999</v>
+      </c>
+      <c r="G187" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H187" s="23"/>
+      <c r="I187" s="23"/>
+      <c r="J187" s="23"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="23"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
+        <v>8</v>
+      </c>
+      <c r="B188" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>176</v>
+      </c>
+      <c r="C188" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D188" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="9">
+        <v>5</v>
+      </c>
+      <c r="F188" s="9">
+        <v>999</v>
+      </c>
+      <c r="G188" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
+        <v>8</v>
+      </c>
+      <c r="B189" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>278</v>
+      </c>
+      <c r="C189" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D189" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="9">
+        <v>1</v>
+      </c>
+      <c r="F189" s="13">
+        <v>78</v>
+      </c>
+      <c r="G189" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
+        <v>8</v>
+      </c>
+      <c r="B190" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>118</v>
+      </c>
+      <c r="C190" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D190" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="9">
+        <v>2</v>
+      </c>
+      <c r="F190" s="14">
+        <v>237</v>
+      </c>
+      <c r="G190" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
+        <v>8</v>
+      </c>
+      <c r="B191" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>248</v>
+      </c>
+      <c r="C191" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D191" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="9">
+        <v>3</v>
+      </c>
+      <c r="F191" s="15">
+        <v>183</v>
+      </c>
+      <c r="G191" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
+        <v>8</v>
+      </c>
+      <c r="B192" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>154</v>
+      </c>
+      <c r="C192" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D192" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="9">
+        <v>4</v>
+      </c>
+      <c r="F192" s="16">
+        <v>131</v>
+      </c>
+      <c r="G192" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
+        <v>8</v>
+      </c>
+      <c r="B193" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>134</v>
+      </c>
+      <c r="C193" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D193" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="9">
+        <v>5</v>
+      </c>
+      <c r="F193" s="17">
+        <v>75</v>
+      </c>
+      <c r="G193" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
+        <v>8</v>
+      </c>
+      <c r="B194" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>160</v>
+      </c>
+      <c r="C194" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="9">
+        <v>1</v>
+      </c>
+      <c r="F194" s="13">
+        <v>79</v>
+      </c>
+      <c r="G194" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
+        <v>8</v>
+      </c>
+      <c r="B195" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>223</v>
+      </c>
+      <c r="C195" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="9">
+        <v>2</v>
+      </c>
+      <c r="F195" s="14">
+        <v>238</v>
+      </c>
+      <c r="G195" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
+        <v>8</v>
+      </c>
+      <c r="B196" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>101</v>
+      </c>
+      <c r="C196" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E196" s="9">
+        <v>3</v>
+      </c>
+      <c r="F196" s="15">
+        <v>185</v>
+      </c>
+      <c r="G196" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
+        <v>8</v>
+      </c>
+      <c r="B197" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>240</v>
+      </c>
+      <c r="C197" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E197" s="9">
+        <v>4</v>
+      </c>
+      <c r="F197" s="16">
+        <v>132</v>
+      </c>
+      <c r="G197" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
+        <v>8</v>
+      </c>
+      <c r="B198" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>242</v>
+      </c>
+      <c r="C198" s="9" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>"old"</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E198" s="9">
+        <v>5</v>
+      </c>
+      <c r="F198" s="17">
+        <v>76</v>
+      </c>
+      <c r="G198" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
+        <v>9</v>
+      </c>
+      <c r="B204" s="13">
+        <v>300</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="9">
+        <v>1</v>
+      </c>
+      <c r="F204" s="9">
+        <v>1</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H204" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I204" s="23"/>
+      <c r="J204" s="23"/>
+      <c r="K204" s="23"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="23"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
+        <v>9</v>
+      </c>
+      <c r="B205" s="14">
+        <v>250</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="9">
+        <v>2</v>
+      </c>
+      <c r="F205" s="9">
+        <v>2</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H205" s="24"/>
+      <c r="I205" s="23"/>
+      <c r="J205" s="23"/>
+      <c r="K205" s="23"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="23"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
+        <v>9</v>
+      </c>
+      <c r="B206" s="15">
+        <v>200</v>
+      </c>
+      <c r="C206" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="9">
+        <v>3</v>
+      </c>
+      <c r="F206" s="9">
+        <v>3</v>
+      </c>
+      <c r="G206" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H206" s="24"/>
+      <c r="I206" s="23"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="23"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="23"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
+        <v>9</v>
+      </c>
+      <c r="B207" s="16">
+        <v>150</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="9">
+        <v>4</v>
+      </c>
+      <c r="F207" s="9">
+        <v>4</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" s="24"/>
+      <c r="I207" s="23"/>
+      <c r="J207" s="23"/>
+      <c r="K207" s="23"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="23"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
+        <v>9</v>
+      </c>
+      <c r="B208" s="17">
+        <v>100</v>
+      </c>
+      <c r="C208" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="9">
+        <v>5</v>
+      </c>
+      <c r="F208" s="9">
+        <v>5</v>
+      </c>
+      <c r="G208" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208" s="24"/>
+      <c r="I208" s="23"/>
+      <c r="J208" s="23"/>
+      <c r="K208" s="23"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="23"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
+        <v>9</v>
+      </c>
+      <c r="B209" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>140</v>
+      </c>
+      <c r="C209" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D209" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E209" s="9">
+        <v>1</v>
+      </c>
+      <c r="F209" s="9">
+        <v>999</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H209" s="23"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="23"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="23"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
+        <v>9</v>
+      </c>
+      <c r="B210" s="9">
+        <f t="shared" ref="B210:B223" ca="1" si="16">RANDBETWEEN(100,300)</f>
+        <v>182</v>
+      </c>
+      <c r="C210" s="9" t="str">
+        <f t="shared" ref="C210:C223" ca="1" si="17">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="9">
+        <v>2</v>
+      </c>
+      <c r="F210" s="9">
+        <v>999</v>
+      </c>
+      <c r="G210" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" s="23"/>
+      <c r="I210" s="23"/>
+      <c r="J210" s="23"/>
+      <c r="K210" s="23"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="23"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
+        <v>9</v>
+      </c>
+      <c r="B211" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>288</v>
+      </c>
+      <c r="C211" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E211" s="9">
+        <v>3</v>
+      </c>
+      <c r="F211" s="9">
+        <v>999</v>
+      </c>
+      <c r="G211" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211" s="23"/>
+      <c r="I211" s="23"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="23"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="23"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
+        <v>9</v>
+      </c>
+      <c r="B212" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>251</v>
+      </c>
+      <c r="C212" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D212" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E212" s="9">
+        <v>4</v>
+      </c>
+      <c r="F212" s="9">
+        <v>999</v>
+      </c>
+      <c r="G212" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" s="23"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="23"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="23"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
+        <v>9</v>
+      </c>
+      <c r="B213" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>278</v>
+      </c>
+      <c r="C213" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D213" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E213" s="9">
+        <v>5</v>
+      </c>
+      <c r="F213" s="9">
+        <v>999</v>
+      </c>
+      <c r="G213" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>9</v>
+      </c>
+      <c r="B214" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>228</v>
+      </c>
+      <c r="C214" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D214" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="9">
+        <v>1</v>
+      </c>
+      <c r="F214" s="13">
+        <v>78</v>
+      </c>
+      <c r="G214" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
+        <v>9</v>
+      </c>
+      <c r="B215" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>120</v>
+      </c>
+      <c r="C215" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="9">
+        <v>2</v>
+      </c>
+      <c r="F215" s="14">
+        <v>237</v>
+      </c>
+      <c r="G215" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
+        <v>9</v>
+      </c>
+      <c r="B216" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>266</v>
+      </c>
+      <c r="C216" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D216" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="9">
+        <v>3</v>
+      </c>
+      <c r="F216" s="15">
+        <v>183</v>
+      </c>
+      <c r="G216" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217" s="5">
+        <v>9</v>
+      </c>
+      <c r="B217" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>165</v>
+      </c>
+      <c r="C217" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D217" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="9">
+        <v>4</v>
+      </c>
+      <c r="F217" s="16">
+        <v>131</v>
+      </c>
+      <c r="G217" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
+        <v>9</v>
+      </c>
+      <c r="B218" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>111</v>
+      </c>
+      <c r="C218" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D218" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="9">
+        <v>5</v>
+      </c>
+      <c r="F218" s="17">
+        <v>75</v>
+      </c>
+      <c r="G218" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
+        <v>9</v>
+      </c>
+      <c r="B219" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>229</v>
+      </c>
+      <c r="C219" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D219" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" s="9">
+        <v>1</v>
+      </c>
+      <c r="F219" s="13">
+        <v>79</v>
+      </c>
+      <c r="G219" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
+        <v>9</v>
+      </c>
+      <c r="B220" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>101</v>
+      </c>
+      <c r="C220" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D220" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" s="9">
+        <v>2</v>
+      </c>
+      <c r="F220" s="14">
+        <v>238</v>
+      </c>
+      <c r="G220" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221" s="5">
+        <v>9</v>
+      </c>
+      <c r="B221" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>172</v>
+      </c>
+      <c r="C221" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D221" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" s="9">
+        <v>3</v>
+      </c>
+      <c r="F221" s="15">
+        <v>185</v>
+      </c>
+      <c r="G221" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
+        <v>9</v>
+      </c>
+      <c r="B222" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>169</v>
+      </c>
+      <c r="C222" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D222" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" s="9">
+        <v>4</v>
+      </c>
+      <c r="F222" s="16">
+        <v>132</v>
+      </c>
+      <c r="G222" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
+        <v>9</v>
+      </c>
+      <c r="B223" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>157</v>
+      </c>
+      <c r="C223" s="9" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>"old"</v>
+      </c>
+      <c r="D223" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="9">
+        <v>5</v>
+      </c>
+      <c r="F223" s="17">
+        <v>76</v>
+      </c>
+      <c r="G223" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
+        <v>10</v>
+      </c>
+      <c r="B229" s="13">
+        <v>300</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="9">
+        <v>1</v>
+      </c>
+      <c r="F229" s="9">
+        <v>1</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="23"/>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
+        <v>10</v>
+      </c>
+      <c r="B230" s="14">
+        <v>350</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D230" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" s="9">
+        <v>2</v>
+      </c>
+      <c r="F230" s="9">
+        <v>2</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="23"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
+        <v>10</v>
+      </c>
+      <c r="B231" s="15">
+        <v>200</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D231" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" s="9">
+        <v>3</v>
+      </c>
+      <c r="F231" s="9">
+        <v>3</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H231" s="23"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="23"/>
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="23"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
+        <v>10</v>
+      </c>
+      <c r="B232" s="16">
+        <v>150</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" s="9">
+        <v>4</v>
+      </c>
+      <c r="F232" s="9">
+        <v>4</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
+        <v>10</v>
+      </c>
+      <c r="B233" s="17">
+        <v>100</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D233" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="9">
+        <v>5</v>
+      </c>
+      <c r="F233" s="9">
+        <v>5</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="23"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
+        <v>10</v>
+      </c>
+      <c r="B234" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>228</v>
+      </c>
+      <c r="C234" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D234" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E234" s="9">
+        <v>1</v>
+      </c>
+      <c r="F234" s="13">
+        <v>325</v>
+      </c>
+      <c r="G234" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H234" s="23"/>
+      <c r="I234" s="23"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="23"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
+        <v>10</v>
+      </c>
+      <c r="B235" s="9">
+        <f t="shared" ref="B235:B248" ca="1" si="18">RANDBETWEEN(100,300)</f>
+        <v>188</v>
+      </c>
+      <c r="C235" s="9" t="str">
+        <f t="shared" ref="C235:C248" ca="1" si="19">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D235" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E235" s="9">
+        <v>2</v>
+      </c>
+      <c r="F235" s="14">
+        <v>133</v>
+      </c>
+      <c r="G235" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
+        <v>10</v>
+      </c>
+      <c r="B236" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>123</v>
+      </c>
+      <c r="C236" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D236" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E236" s="9">
+        <v>3</v>
+      </c>
+      <c r="F236" s="15">
+        <v>170</v>
+      </c>
+      <c r="G236" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="23"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237" s="5">
+        <v>10</v>
+      </c>
+      <c r="B237" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="C237" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D237" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E237" s="9">
+        <v>4</v>
+      </c>
+      <c r="F237" s="16">
+        <v>50</v>
+      </c>
+      <c r="G237" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="23"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238" s="5">
+        <v>10</v>
+      </c>
+      <c r="B238" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>116</v>
+      </c>
+      <c r="C238" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E238" s="9">
+        <v>5</v>
+      </c>
+      <c r="F238" s="17">
+        <v>120</v>
+      </c>
+      <c r="G238" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239" s="5">
+        <v>10</v>
+      </c>
+      <c r="B239" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>225</v>
+      </c>
+      <c r="C239" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D239" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="9">
+        <v>1</v>
+      </c>
+      <c r="F239" s="13">
+        <v>78</v>
+      </c>
+      <c r="G239" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240" s="5">
+        <v>10</v>
+      </c>
+      <c r="B240" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>211</v>
+      </c>
+      <c r="C240" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D240" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="9">
+        <v>2</v>
+      </c>
+      <c r="F240" s="14">
+        <v>237</v>
+      </c>
+      <c r="G240" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241" s="5">
+        <v>10</v>
+      </c>
+      <c r="B241" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>255</v>
+      </c>
+      <c r="C241" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="9">
+        <v>3</v>
+      </c>
+      <c r="F241" s="15">
+        <v>183</v>
+      </c>
+      <c r="G241" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
+        <v>10</v>
+      </c>
+      <c r="B242" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>269</v>
+      </c>
+      <c r="C242" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D242" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="9">
+        <v>4</v>
+      </c>
+      <c r="F242" s="16">
+        <v>131</v>
+      </c>
+      <c r="G242" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
+        <v>10</v>
+      </c>
+      <c r="B243" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>207</v>
+      </c>
+      <c r="C243" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="9">
+        <v>5</v>
+      </c>
+      <c r="F243" s="17">
+        <v>75</v>
+      </c>
+      <c r="G243" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
+        <v>10</v>
+      </c>
+      <c r="B244" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>207</v>
+      </c>
+      <c r="C244" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D244" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" s="9">
+        <v>1</v>
+      </c>
+      <c r="F244" s="13">
+        <v>79</v>
+      </c>
+      <c r="G244" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
+        <v>10</v>
+      </c>
+      <c r="B245" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>289</v>
+      </c>
+      <c r="C245" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" s="9">
+        <v>2</v>
+      </c>
+      <c r="F245" s="14">
+        <v>238</v>
+      </c>
+      <c r="G245" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
+        <v>10</v>
+      </c>
+      <c r="B246" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>232</v>
+      </c>
+      <c r="C246" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D246" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" s="9">
+        <v>3</v>
+      </c>
+      <c r="F246" s="15">
+        <v>185</v>
+      </c>
+      <c r="G246" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
+        <v>10</v>
+      </c>
+      <c r="B247" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>120</v>
+      </c>
+      <c r="C247" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"old"</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" s="9">
+        <v>4</v>
+      </c>
+      <c r="F247" s="16">
+        <v>132</v>
+      </c>
+      <c r="G247" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
+        <v>10</v>
+      </c>
+      <c r="B248" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>222</v>
+      </c>
+      <c r="C248" s="9" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" s="9">
+        <v>5</v>
+      </c>
+      <c r="F248" s="17">
+        <v>76</v>
+      </c>
+      <c r="G248" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
+        <v>11</v>
+      </c>
+      <c r="B254" s="13">
+        <v>300</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="9">
+        <v>1</v>
+      </c>
+      <c r="F254" s="9">
+        <v>1</v>
+      </c>
+      <c r="G254" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H254" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I254" s="23"/>
+      <c r="J254" s="23"/>
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
+        <v>11</v>
+      </c>
+      <c r="B255" s="14">
+        <v>350</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="9">
+        <v>2</v>
+      </c>
+      <c r="F255" s="9">
+        <v>2</v>
+      </c>
+      <c r="G255" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H255" s="23"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="23"/>
+      <c r="K255" s="23"/>
+      <c r="L255" s="23"/>
+      <c r="M255" s="23"/>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
+        <v>11</v>
+      </c>
+      <c r="B256" s="15">
+        <v>200</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="9">
+        <v>3</v>
+      </c>
+      <c r="F256" s="9">
+        <v>3</v>
+      </c>
+      <c r="G256" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H256" s="23"/>
+      <c r="I256" s="23"/>
+      <c r="J256" s="23"/>
+      <c r="K256" s="23"/>
+      <c r="L256" s="23"/>
+      <c r="M256" s="23"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
+        <v>11</v>
+      </c>
+      <c r="B257" s="16">
+        <v>150</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="9">
+        <v>4</v>
+      </c>
+      <c r="F257" s="9">
+        <v>4</v>
+      </c>
+      <c r="G257" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H257" s="23"/>
+      <c r="I257" s="23"/>
+      <c r="J257" s="23"/>
+      <c r="K257" s="23"/>
+      <c r="L257" s="23"/>
+      <c r="M257" s="23"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
+        <v>11</v>
+      </c>
+      <c r="B258" s="17">
+        <v>100</v>
+      </c>
+      <c r="C258" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="9">
+        <v>5</v>
+      </c>
+      <c r="F258" s="9">
+        <v>5</v>
+      </c>
+      <c r="G258" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H258" s="23"/>
+      <c r="I258" s="23"/>
+      <c r="J258" s="23"/>
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+      <c r="M258" s="23"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259" s="5">
+        <v>11</v>
+      </c>
+      <c r="B259" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>286</v>
+      </c>
+      <c r="C259" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" s="9">
+        <v>1</v>
+      </c>
+      <c r="F259" s="13">
+        <v>325</v>
+      </c>
+      <c r="G259" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H259" s="23"/>
+      <c r="I259" s="23"/>
+      <c r="J259" s="23"/>
+      <c r="K259" s="23"/>
+      <c r="L259" s="23"/>
+      <c r="M259" s="23"/>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
+        <v>11</v>
+      </c>
+      <c r="B260" s="9">
+        <f t="shared" ref="B260:B273" ca="1" si="20">RANDBETWEEN(100,300)</f>
+        <v>224</v>
+      </c>
+      <c r="C260" s="9" t="str">
+        <f t="shared" ref="C260:C273" ca="1" si="21">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" s="9">
+        <v>2</v>
+      </c>
+      <c r="F260" s="14">
+        <v>133</v>
+      </c>
+      <c r="G260" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H260" s="23"/>
+      <c r="I260" s="23"/>
+      <c r="J260" s="23"/>
+      <c r="K260" s="23"/>
+      <c r="L260" s="23"/>
+      <c r="M260" s="23"/>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
+        <v>11</v>
+      </c>
+      <c r="B261" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>252</v>
+      </c>
+      <c r="C261" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" s="9">
+        <v>3</v>
+      </c>
+      <c r="F261" s="15">
+        <v>170</v>
+      </c>
+      <c r="G261" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H261" s="23"/>
+      <c r="I261" s="23"/>
+      <c r="J261" s="23"/>
+      <c r="K261" s="23"/>
+      <c r="L261" s="23"/>
+      <c r="M261" s="23"/>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
+        <v>11</v>
+      </c>
+      <c r="B262" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>176</v>
+      </c>
+      <c r="C262" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" s="9">
+        <v>4</v>
+      </c>
+      <c r="F262" s="16">
+        <v>50</v>
+      </c>
+      <c r="G262" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H262" s="23"/>
+      <c r="I262" s="23"/>
+      <c r="J262" s="23"/>
+      <c r="K262" s="23"/>
+      <c r="L262" s="23"/>
+      <c r="M262" s="23"/>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
+        <v>11</v>
+      </c>
+      <c r="B263" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>108</v>
+      </c>
+      <c r="C263" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" s="9">
+        <v>5</v>
+      </c>
+      <c r="F263" s="17">
+        <v>120</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
+        <v>11</v>
+      </c>
+      <c r="B264" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>187</v>
+      </c>
+      <c r="C264" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="9">
+        <v>1</v>
+      </c>
+      <c r="F264" s="13">
+        <v>78</v>
+      </c>
+      <c r="G264" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
+        <v>11</v>
+      </c>
+      <c r="B265" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>283</v>
+      </c>
+      <c r="C265" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="9">
+        <v>2</v>
+      </c>
+      <c r="F265" s="14">
+        <v>237</v>
+      </c>
+      <c r="G265" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266" s="5">
+        <v>11</v>
+      </c>
+      <c r="B266" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>240</v>
+      </c>
+      <c r="C266" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" s="9">
+        <v>3</v>
+      </c>
+      <c r="F266" s="15">
+        <v>183</v>
+      </c>
+      <c r="G266" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267" s="5">
+        <v>11</v>
+      </c>
+      <c r="B267" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>257</v>
+      </c>
+      <c r="C267" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="9">
+        <v>4</v>
+      </c>
+      <c r="F267" s="16">
+        <v>131</v>
+      </c>
+      <c r="G267" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268" s="5">
+        <v>11</v>
+      </c>
+      <c r="B268" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>249</v>
+      </c>
+      <c r="C268" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="9">
+        <v>5</v>
+      </c>
+      <c r="F268" s="17">
+        <v>75</v>
+      </c>
+      <c r="G268" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269" s="5">
+        <v>11</v>
+      </c>
+      <c r="B269" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>188</v>
+      </c>
+      <c r="C269" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" s="9">
+        <v>1</v>
+      </c>
+      <c r="F269" s="13">
+        <v>79</v>
+      </c>
+      <c r="G269" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270" s="5">
+        <v>11</v>
+      </c>
+      <c r="B270" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>209</v>
+      </c>
+      <c r="C270" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" s="9">
+        <v>2</v>
+      </c>
+      <c r="F270" s="14">
+        <v>238</v>
+      </c>
+      <c r="G270" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
+        <v>11</v>
+      </c>
+      <c r="B271" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>198</v>
+      </c>
+      <c r="C271" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" s="9">
+        <v>3</v>
+      </c>
+      <c r="F271" s="15">
+        <v>185</v>
+      </c>
+      <c r="G271" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
+        <v>11</v>
+      </c>
+      <c r="B272" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>282</v>
+      </c>
+      <c r="C272" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" s="9">
+        <v>4</v>
+      </c>
+      <c r="F272" s="16">
+        <v>132</v>
+      </c>
+      <c r="G272" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273" s="5">
+        <v>11</v>
+      </c>
+      <c r="B273" s="9">
+        <f t="shared" ca="1" si="20"/>
+        <v>107</v>
+      </c>
+      <c r="C273" s="9" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>"old"</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E273" s="9">
+        <v>5</v>
+      </c>
+      <c r="F273" s="17">
+        <v>76</v>
+      </c>
+      <c r="G273" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="5">
+        <v>12</v>
+      </c>
+      <c r="B279" s="13">
+        <v>100</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="9">
+        <v>1</v>
+      </c>
+      <c r="F279" s="9">
+        <v>1</v>
+      </c>
+      <c r="G279" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H279" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I279" s="23"/>
+      <c r="J279" s="23"/>
+      <c r="K279" s="23"/>
+      <c r="L279" s="23"/>
+      <c r="M279" s="23"/>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280" s="5">
+        <v>12</v>
+      </c>
+      <c r="B280" s="14">
+        <v>150</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="9">
+        <v>2</v>
+      </c>
+      <c r="F280" s="9">
+        <v>2</v>
+      </c>
+      <c r="G280" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H280" s="23"/>
+      <c r="I280" s="23"/>
+      <c r="J280" s="23"/>
+      <c r="K280" s="23"/>
+      <c r="L280" s="23"/>
+      <c r="M280" s="23"/>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281" s="5">
+        <v>12</v>
+      </c>
+      <c r="B281" s="15">
+        <v>200</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="9">
+        <v>3</v>
+      </c>
+      <c r="F281" s="9">
+        <v>3</v>
+      </c>
+      <c r="G281" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H281" s="23"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="23"/>
+      <c r="L281" s="23"/>
+      <c r="M281" s="23"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282" s="5">
+        <v>12</v>
+      </c>
+      <c r="B282" s="16">
+        <v>250</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="9">
+        <v>4</v>
+      </c>
+      <c r="F282" s="9">
+        <v>4</v>
+      </c>
+      <c r="G282" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H282" s="23"/>
+      <c r="I282" s="23"/>
+      <c r="J282" s="23"/>
+      <c r="K282" s="23"/>
+      <c r="L282" s="23"/>
+      <c r="M282" s="23"/>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283" s="5">
+        <v>12</v>
+      </c>
+      <c r="B283" s="17">
+        <v>300</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="9">
+        <v>5</v>
+      </c>
+      <c r="F283" s="9">
+        <v>5</v>
+      </c>
+      <c r="G283" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H283" s="23"/>
+      <c r="I283" s="23"/>
+      <c r="J283" s="23"/>
+      <c r="K283" s="23"/>
+      <c r="L283" s="23"/>
+      <c r="M283" s="23"/>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284" s="5">
+        <v>12</v>
+      </c>
+      <c r="B284" s="9">
+        <f ca="1">RANDBETWEEN(100,300)</f>
+        <v>193</v>
+      </c>
+      <c r="C284" s="9" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" s="9">
+        <v>1</v>
+      </c>
+      <c r="F284" s="13">
+        <v>5</v>
+      </c>
+      <c r="G284" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H284" s="23"/>
+      <c r="I284" s="23"/>
+      <c r="J284" s="23"/>
+      <c r="K284" s="23"/>
+      <c r="L284" s="23"/>
+      <c r="M284" s="23"/>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285" s="5">
+        <v>12</v>
+      </c>
+      <c r="B285" s="9">
+        <f t="shared" ref="B285:B298" ca="1" si="22">RANDBETWEEN(100,300)</f>
+        <v>173</v>
+      </c>
+      <c r="C285" s="9" t="str">
+        <f t="shared" ref="C285:C298" ca="1" si="23">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" s="9">
+        <v>2</v>
+      </c>
+      <c r="F285" s="14">
+        <v>4</v>
+      </c>
+      <c r="G285" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H285" s="23"/>
+      <c r="I285" s="23"/>
+      <c r="J285" s="23"/>
+      <c r="K285" s="23"/>
+      <c r="L285" s="23"/>
+      <c r="M285" s="23"/>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286" s="5">
+        <v>12</v>
+      </c>
+      <c r="B286" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>130</v>
+      </c>
+      <c r="C286" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" s="9">
+        <v>3</v>
+      </c>
+      <c r="F286" s="15">
+        <v>3</v>
+      </c>
+      <c r="G286" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H286" s="23"/>
+      <c r="I286" s="23"/>
+      <c r="J286" s="23"/>
+      <c r="K286" s="23"/>
+      <c r="L286" s="23"/>
+      <c r="M286" s="23"/>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287" s="5">
+        <v>12</v>
+      </c>
+      <c r="B287" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>105</v>
+      </c>
+      <c r="C287" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"old"</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" s="9">
+        <v>4</v>
+      </c>
+      <c r="F287" s="16">
+        <v>2</v>
+      </c>
+      <c r="G287" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H287" s="23"/>
+      <c r="I287" s="23"/>
+      <c r="J287" s="23"/>
+      <c r="K287" s="23"/>
+      <c r="L287" s="23"/>
+      <c r="M287" s="23"/>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" s="5">
+        <v>12</v>
+      </c>
+      <c r="B288" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>245</v>
+      </c>
+      <c r="C288" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"old"</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" s="9">
+        <v>5</v>
+      </c>
+      <c r="F288" s="17">
+        <v>1</v>
+      </c>
+      <c r="G288" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="5">
+        <v>12</v>
+      </c>
+      <c r="B289" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>115</v>
+      </c>
+      <c r="C289" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E289" s="9">
+        <v>1</v>
+      </c>
+      <c r="F289" s="13">
+        <v>50</v>
+      </c>
+      <c r="G289" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="5">
+        <v>12</v>
+      </c>
+      <c r="B290" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>140</v>
+      </c>
+      <c r="C290" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"old"</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E290" s="9">
+        <v>2</v>
+      </c>
+      <c r="F290" s="14">
+        <v>101</v>
+      </c>
+      <c r="G290" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="5">
+        <v>12</v>
+      </c>
+      <c r="B291" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>242</v>
+      </c>
+      <c r="C291" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E291" s="9">
+        <v>3</v>
+      </c>
+      <c r="F291" s="15">
+        <v>152</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="5">
+        <v>12</v>
+      </c>
+      <c r="B292" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>157</v>
+      </c>
+      <c r="C292" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"old"</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E292" s="9">
+        <v>4</v>
+      </c>
+      <c r="F292" s="16">
+        <v>203</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="5">
+        <v>12</v>
+      </c>
+      <c r="B293" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>254</v>
+      </c>
+      <c r="C293" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E293" s="9">
+        <v>5</v>
+      </c>
+      <c r="F293" s="17">
+        <v>254</v>
+      </c>
+      <c r="G293" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="5">
+        <v>12</v>
+      </c>
+      <c r="B294" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>184</v>
+      </c>
+      <c r="C294" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E294" s="9">
+        <v>1</v>
+      </c>
+      <c r="F294" s="13">
+        <v>51</v>
+      </c>
+      <c r="G294" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="5">
+        <v>12</v>
+      </c>
+      <c r="B295" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>213</v>
+      </c>
+      <c r="C295" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E295" s="9">
+        <v>2</v>
+      </c>
+      <c r="F295" s="14">
+        <v>102</v>
+      </c>
+      <c r="G295" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="5">
+        <v>12</v>
+      </c>
+      <c r="B296" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>239</v>
+      </c>
+      <c r="C296" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"old"</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E296" s="9">
+        <v>3</v>
+      </c>
+      <c r="F296" s="15">
+        <v>153</v>
+      </c>
+      <c r="G296" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="5">
+        <v>12</v>
+      </c>
+      <c r="B297" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>159</v>
+      </c>
+      <c r="C297" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E297" s="9">
+        <v>4</v>
+      </c>
+      <c r="F297" s="16">
+        <v>204</v>
+      </c>
+      <c r="G297" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="5">
+        <v>12</v>
+      </c>
+      <c r="B298" s="9">
+        <f t="shared" ca="1" si="22"/>
+        <v>120</v>
+      </c>
+      <c r="C298" s="9" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E298" s="9">
+        <v>5</v>
+      </c>
+      <c r="F298" s="17">
+        <v>255</v>
+      </c>
+      <c r="G298" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A336" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B336" s="13">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>8</v>
+      </c>
+      <c r="C336" s="13" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="D336" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="9">
+        <v>1</v>
+      </c>
+      <c r="F336" s="13">
+        <f ca="1">ROUND((RANDBETWEEN(1,100)/100)*B336,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G336" s="18" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
+      </c>
+      <c r="H336" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I336" s="23"/>
+      <c r="J336" s="23"/>
+      <c r="K336" s="23"/>
+      <c r="L336" s="23"/>
+      <c r="M336" s="23"/>
+    </row>
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A337" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B337" s="14">
+        <f ca="1">RANDBETWEEN(60,160)</f>
+        <v>123</v>
+      </c>
+      <c r="C337" s="14" t="str">
+        <f t="shared" ref="C337:C355" ca="1" si="24">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="D337" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="9">
+        <v>2</v>
+      </c>
+      <c r="F337" s="14">
+        <f t="shared" ref="F337:F340" ca="1" si="25">ROUND((RANDBETWEEN(1,100)/100)*B337,0)</f>
+        <v>77</v>
+      </c>
+      <c r="G337" s="19" t="str">
+        <f t="shared" ref="G337:G355" ca="1" si="26">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="H337" s="23"/>
+      <c r="I337" s="23"/>
+      <c r="J337" s="23"/>
+      <c r="K337" s="23"/>
+      <c r="L337" s="23"/>
+      <c r="M337" s="23"/>
+    </row>
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A338" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B338" s="15">
+        <f ca="1">RANDBETWEEN(120,220)</f>
+        <v>147</v>
+      </c>
+      <c r="C338" s="15" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D338" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="9">
+        <v>3</v>
+      </c>
+      <c r="F338" s="15">
+        <f t="shared" ca="1" si="25"/>
+        <v>101</v>
+      </c>
+      <c r="G338" s="20" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="H338" s="23"/>
+      <c r="I338" s="23"/>
+      <c r="J338" s="23"/>
+      <c r="K338" s="23"/>
+      <c r="L338" s="23"/>
+      <c r="M338" s="23"/>
+    </row>
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A339" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B339" s="16">
+        <f ca="1">RANDBETWEEN(180,280)</f>
+        <v>262</v>
+      </c>
+      <c r="C339" s="16" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D339" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" s="9">
+        <v>4</v>
+      </c>
+      <c r="F339" s="16">
+        <f t="shared" ca="1" si="25"/>
+        <v>212</v>
+      </c>
+      <c r="G339" s="21" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="H339" s="23"/>
+      <c r="I339" s="23"/>
+      <c r="J339" s="23"/>
+      <c r="K339" s="23"/>
+      <c r="L339" s="23"/>
+      <c r="M339" s="23"/>
+    </row>
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A340" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B340" s="17">
+        <f ca="1">RANDBETWEEN(240,340)</f>
+        <v>274</v>
+      </c>
+      <c r="C340" s="17" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D340" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" s="9">
+        <v>5</v>
+      </c>
+      <c r="F340" s="17">
+        <f t="shared" ca="1" si="25"/>
+        <v>203</v>
+      </c>
+      <c r="G340" s="22" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+      <c r="H340" s="23"/>
+      <c r="I340" s="23"/>
+      <c r="J340" s="23"/>
+      <c r="K340" s="23"/>
+      <c r="L340" s="23"/>
+      <c r="M340" s="23"/>
+    </row>
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A341" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B341" s="9">
+        <f t="shared" ref="B341" ca="1" si="27">RANDBETWEEN(1,100)</f>
+        <v>2</v>
+      </c>
+      <c r="C341" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D341" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" s="9">
+        <v>1</v>
+      </c>
+      <c r="F341" s="13">
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>31</v>
+      </c>
+      <c r="G341" s="18" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+      <c r="H341" s="23"/>
+      <c r="I341" s="23"/>
+      <c r="J341" s="23"/>
+      <c r="K341" s="23"/>
+      <c r="L341" s="23"/>
+      <c r="M341" s="23"/>
+    </row>
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A342" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B342" s="9">
+        <f t="shared" ref="B342" ca="1" si="28">RANDBETWEEN(60,160)</f>
+        <v>138</v>
+      </c>
+      <c r="C342" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D342" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" s="9">
+        <v>2</v>
+      </c>
+      <c r="F342" s="14">
+        <f ca="1">RANDBETWEEN(60,160)</f>
+        <v>72</v>
+      </c>
+      <c r="G342" s="19" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+      <c r="H342" s="23"/>
+      <c r="I342" s="23"/>
+      <c r="J342" s="23"/>
+      <c r="K342" s="23"/>
+      <c r="L342" s="23"/>
+      <c r="M342" s="23"/>
+    </row>
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A343" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B343" s="9">
+        <f t="shared" ref="B343" ca="1" si="29">RANDBETWEEN(120,220)</f>
+        <v>183</v>
+      </c>
+      <c r="C343" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D343" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" s="9">
+        <v>3</v>
+      </c>
+      <c r="F343" s="15">
+        <f ca="1">RANDBETWEEN(120,220)</f>
+        <v>179</v>
+      </c>
+      <c r="G343" s="20" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="H343" s="23"/>
+      <c r="I343" s="23"/>
+      <c r="J343" s="23"/>
+      <c r="K343" s="23"/>
+      <c r="L343" s="23"/>
+      <c r="M343" s="23"/>
+    </row>
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A344" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B344" s="9">
+        <f t="shared" ref="B344" ca="1" si="30">RANDBETWEEN(180,280)</f>
+        <v>244</v>
+      </c>
+      <c r="C344" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D344" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" s="9">
+        <v>4</v>
+      </c>
+      <c r="F344" s="16">
+        <f ca="1">RANDBETWEEN(180,280)</f>
+        <v>259</v>
+      </c>
+      <c r="G344" s="21" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+      <c r="H344" s="23"/>
+      <c r="I344" s="23"/>
+      <c r="J344" s="23"/>
+      <c r="K344" s="23"/>
+      <c r="L344" s="23"/>
+      <c r="M344" s="23"/>
+    </row>
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A345" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B345" s="9">
+        <f t="shared" ref="B345" ca="1" si="31">RANDBETWEEN(240,340)</f>
+        <v>261</v>
+      </c>
+      <c r="C345" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D345" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" s="9">
+        <v>5</v>
+      </c>
+      <c r="F345" s="17">
+        <f ca="1">RANDBETWEEN(240,340)</f>
+        <v>275</v>
+      </c>
+      <c r="G345" s="22" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A346" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B346" s="9">
+        <f t="shared" ref="B346" ca="1" si="32">RANDBETWEEN(1,100)</f>
+        <v>10</v>
+      </c>
+      <c r="C346" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D346" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E346" s="9">
+        <v>1</v>
+      </c>
+      <c r="F346" s="13">
+        <f t="shared" ref="F346" ca="1" si="33">RANDBETWEEN(1,100)</f>
+        <v>58</v>
+      </c>
+      <c r="G346" s="18" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A347" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B347" s="9">
+        <f t="shared" ref="B347" ca="1" si="34">RANDBETWEEN(60,160)</f>
+        <v>68</v>
+      </c>
+      <c r="C347" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D347" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E347" s="9">
+        <v>2</v>
+      </c>
+      <c r="F347" s="14">
+        <f t="shared" ref="F347" ca="1" si="35">RANDBETWEEN(60,160)</f>
+        <v>107</v>
+      </c>
+      <c r="G347" s="19" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A348" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B348" s="9">
+        <f t="shared" ref="B348" ca="1" si="36">RANDBETWEEN(120,220)</f>
+        <v>168</v>
+      </c>
+      <c r="C348" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D348" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E348" s="9">
+        <v>3</v>
+      </c>
+      <c r="F348" s="15">
+        <f t="shared" ref="F348" ca="1" si="37">RANDBETWEEN(120,220)</f>
+        <v>159</v>
+      </c>
+      <c r="G348" s="20" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A349" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B349" s="9">
+        <f t="shared" ref="B349" ca="1" si="38">RANDBETWEEN(180,280)</f>
+        <v>256</v>
+      </c>
+      <c r="C349" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D349" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E349" s="9">
+        <v>4</v>
+      </c>
+      <c r="F349" s="16">
+        <f t="shared" ref="F349" ca="1" si="39">RANDBETWEEN(180,280)</f>
+        <v>267</v>
+      </c>
+      <c r="G349" s="21" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A350" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B350" s="9">
+        <f t="shared" ref="B350" ca="1" si="40">RANDBETWEEN(240,340)</f>
+        <v>243</v>
+      </c>
+      <c r="C350" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D350" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E350" s="9">
+        <v>5</v>
+      </c>
+      <c r="F350" s="17">
+        <f t="shared" ref="F350" ca="1" si="41">RANDBETWEEN(240,340)</f>
+        <v>269</v>
+      </c>
+      <c r="G350" s="22" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A351" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B351" s="9">
+        <f t="shared" ref="B351" ca="1" si="42">RANDBETWEEN(1,100)</f>
+        <v>65</v>
+      </c>
+      <c r="C351" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
+      </c>
+      <c r="D351" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E351" s="9">
+        <v>1</v>
+      </c>
+      <c r="F351" s="13">
+        <f t="shared" ref="F351" ca="1" si="43">RANDBETWEEN(1,100)</f>
+        <v>91</v>
+      </c>
+      <c r="G351" s="18" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A352" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B352" s="9">
+        <f t="shared" ref="B352" ca="1" si="44">RANDBETWEEN(60,160)</f>
+        <v>101</v>
+      </c>
+      <c r="C352" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D352" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E352" s="9">
+        <v>2</v>
+      </c>
+      <c r="F352" s="14">
+        <f t="shared" ref="F352" ca="1" si="45">RANDBETWEEN(60,160)</f>
+        <v>92</v>
+      </c>
+      <c r="G352" s="19" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B353" s="9">
+        <f t="shared" ref="B353" ca="1" si="46">RANDBETWEEN(120,220)</f>
+        <v>212</v>
+      </c>
+      <c r="C353" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D353" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E353" s="9">
+        <v>3</v>
+      </c>
+      <c r="F353" s="15">
+        <f t="shared" ref="F353" ca="1" si="47">RANDBETWEEN(120,220)</f>
+        <v>188</v>
+      </c>
+      <c r="G353" s="20" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"old"</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B354" s="9">
+        <f t="shared" ref="B354" ca="1" si="48">RANDBETWEEN(180,280)</f>
+        <v>230</v>
+      </c>
+      <c r="C354" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D354" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E354" s="9">
+        <v>4</v>
+      </c>
+      <c r="F354" s="16">
+        <f t="shared" ref="F354" ca="1" si="49">RANDBETWEEN(180,280)</f>
+        <v>264</v>
+      </c>
+      <c r="G354" s="21" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B355" s="9">
+        <f t="shared" ref="B355" ca="1" si="50">RANDBETWEEN(240,340)</f>
+        <v>265</v>
+      </c>
+      <c r="C355" s="9" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+      <c r="D355" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E355" s="9">
+        <v>5</v>
+      </c>
+      <c r="F355" s="17">
+        <f t="shared" ref="F355" ca="1" si="51">RANDBETWEEN(240,340)</f>
+        <v>336</v>
+      </c>
+      <c r="G355" s="22" t="str">
+        <f t="shared" ca="1" si="26"/>
+        <v>"fresh"</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B361" s="13">
+        <v>31</v>
+      </c>
+      <c r="C361" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D361" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="9">
+        <v>1</v>
+      </c>
+      <c r="F361" s="13">
+        <v>25</v>
+      </c>
+      <c r="G361" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B362" s="14">
+        <v>66</v>
+      </c>
+      <c r="C362" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D362" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362" s="9">
+        <v>2</v>
+      </c>
+      <c r="F362" s="14">
+        <v>61</v>
+      </c>
+      <c r="G362" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B363" s="15">
+        <v>198</v>
+      </c>
+      <c r="C363" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D363" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E363" s="9">
+        <v>3</v>
+      </c>
+      <c r="F363" s="15">
+        <v>40</v>
+      </c>
+      <c r="G363" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B364" s="16">
+        <v>260</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D364" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E364" s="9">
+        <v>4</v>
+      </c>
+      <c r="F364" s="16">
+        <v>229</v>
+      </c>
+      <c r="G364" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B365" s="17">
+        <v>316</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D365" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E365" s="9">
+        <v>5</v>
+      </c>
+      <c r="F365" s="17">
+        <v>183</v>
+      </c>
+      <c r="G365" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B366" s="9">
+        <v>77</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D366" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E366" s="9">
+        <v>1</v>
+      </c>
+      <c r="F366" s="13">
+        <v>8</v>
+      </c>
+      <c r="G366" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B367" s="9">
+        <v>85</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E367" s="9">
+        <v>2</v>
+      </c>
+      <c r="F367" s="14">
+        <v>144</v>
+      </c>
+      <c r="G367" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B368" s="9">
+        <v>139</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E368" s="9">
+        <v>3</v>
+      </c>
+      <c r="F368" s="15">
+        <v>153</v>
+      </c>
+      <c r="G368" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B369" s="9">
+        <v>215</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E369" s="9">
+        <v>4</v>
+      </c>
+      <c r="F369" s="16">
+        <v>224</v>
+      </c>
+      <c r="G369" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B370" s="9">
+        <v>253</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E370" s="9">
+        <v>5</v>
+      </c>
+      <c r="F370" s="17">
+        <v>288</v>
+      </c>
+      <c r="G370" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A371" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B371" s="9">
+        <v>39</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D371" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" s="9">
+        <v>1</v>
+      </c>
+      <c r="F371" s="13">
+        <v>25</v>
+      </c>
+      <c r="G371" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A372" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B372" s="9">
+        <v>75</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D372" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" s="9">
+        <v>2</v>
+      </c>
+      <c r="F372" s="14">
+        <v>151</v>
+      </c>
+      <c r="G372" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A373" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B373" s="9">
+        <v>165</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D373" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" s="9">
+        <v>3</v>
+      </c>
+      <c r="F373" s="15">
+        <v>121</v>
+      </c>
+      <c r="G373" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A374" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B374" s="9">
+        <v>249</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D374" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" s="9">
+        <v>4</v>
+      </c>
+      <c r="F374" s="16">
+        <v>247</v>
+      </c>
+      <c r="G374" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A375" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B375" s="9">
+        <v>308</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D375" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" s="9">
+        <v>5</v>
+      </c>
+      <c r="F375" s="17">
+        <v>249</v>
+      </c>
+      <c r="G375" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A376" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B376" s="9">
+        <v>62</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D376" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E376" s="9">
+        <v>1</v>
+      </c>
+      <c r="F376" s="13">
+        <v>65</v>
+      </c>
+      <c r="G376" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A377" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B377" s="9">
+        <v>119</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D377" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E377" s="9">
+        <v>2</v>
+      </c>
+      <c r="F377" s="14">
+        <v>81</v>
+      </c>
+      <c r="G377" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A378" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B378" s="9">
+        <v>208</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D378" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E378" s="9">
+        <v>3</v>
+      </c>
+      <c r="F378" s="15">
+        <v>145</v>
+      </c>
+      <c r="G378" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A379" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B379" s="9">
+        <v>276</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D379" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E379" s="9">
+        <v>4</v>
+      </c>
+      <c r="F379" s="16">
+        <v>195</v>
+      </c>
+      <c r="G379" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A380" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B380" s="9">
+        <v>253</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D380" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E380" s="9">
+        <v>5</v>
+      </c>
+      <c r="F380" s="17">
+        <v>245</v>
+      </c>
+      <c r="G380" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="H336:M344"/>
     <mergeCell ref="H4:M12"/>
     <mergeCell ref="H29:M37"/>
     <mergeCell ref="H54:M62"/>
     <mergeCell ref="H79:M87"/>
+    <mergeCell ref="H104:M112"/>
+    <mergeCell ref="H254:M262"/>
+    <mergeCell ref="H129:M137"/>
+    <mergeCell ref="H154:M162"/>
+    <mergeCell ref="H179:M187"/>
+    <mergeCell ref="H204:M212"/>
+    <mergeCell ref="H229:M237"/>
+    <mergeCell ref="H279:M287"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/flipper_test_cases_excel.xlsx
+++ b/flipper_test_cases_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexe\Documents\GitHub\Flipper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA62C3BF-3F16-4025-99E3-98E9521F5749}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8650D8-E82A-44AF-BEBF-81013422CE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C147AE23-4FCE-4710-9E9A-276E5F5B37D4}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="30">
   <si>
     <t>buy_price_max</t>
   </si>
@@ -305,44 +305,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Test case #11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>same as test case #10 but the Th: normal-normal. Caerleon profits still showign masterpiece.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Test case #12: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>most profitable in FS: normal-&gt;masterpiece (same qualities comparison only). BM difference negative so should just show outdated and very old. Profits in Caerleon outdated but still showing masterpiece as it is less than a week old.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Test case #2:</t>
     </r>
     <r>
@@ -377,6 +339,21 @@
         <scheme val="minor"/>
       </rPr>
       <t>same as test case #4 except the BM order diference is now positive so should show up the difference (outdated), but is still very old.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Test case #11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>most profitable in FS: normal-&gt;masterpiece (same qualities comparison only), Caerleon excellent-excellent. BM difference negative so should just show outdated and very old. Profits in Caerleon outdated but still showing masterpiece as it is less than a week old.</t>
     </r>
   </si>
 </sst>
@@ -890,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D51AD6-84BB-4820-9F9C-48A5283B3F69}">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:N323"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H310" sqref="H310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,11 +1095,11 @@
       </c>
       <c r="B9" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>11</v>
@@ -1149,7 +1126,7 @@
       </c>
       <c r="B10" s="9">
         <f t="shared" ref="B10:B23" ca="1" si="0">RANDBETWEEN(100,300)</f>
-        <v>130</v>
+        <v>264</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" ref="C10:C23" ca="1" si="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -1180,7 +1157,7 @@
       </c>
       <c r="B11" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1211,11 +1188,11 @@
       </c>
       <c r="B12" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>11</v>
@@ -1242,7 +1219,7 @@
       </c>
       <c r="B13" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1267,11 +1244,11 @@
       </c>
       <c r="B14" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>12</v>
@@ -1292,11 +1269,11 @@
       </c>
       <c r="B15" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>12</v>
@@ -1321,7 +1298,7 @@
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>12</v>
@@ -1342,11 +1319,11 @@
       </c>
       <c r="B17" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>12</v>
@@ -1367,7 +1344,7 @@
       </c>
       <c r="B18" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <v>142</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1392,11 +1369,11 @@
       </c>
       <c r="B19" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>250</v>
+        <v>104</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>13</v>
@@ -1417,7 +1394,7 @@
       </c>
       <c r="B20" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1442,11 +1419,11 @@
       </c>
       <c r="B21" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>13</v>
@@ -1467,11 +1444,11 @@
       </c>
       <c r="B22" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>180</v>
+        <v>262</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>13</v>
@@ -1492,11 +1469,11 @@
       </c>
       <c r="B23" s="9">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>191</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>13</v>
@@ -1534,7 +1511,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -1664,11 +1641,11 @@
       </c>
       <c r="B34" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="C34" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>11</v>
@@ -1695,7 +1672,7 @@
       </c>
       <c r="B35" s="9">
         <f t="shared" ref="B35:B48" ca="1" si="2">RANDBETWEEN(100,300)</f>
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" ref="C35:C48" ca="1" si="3">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -1726,11 +1703,11 @@
       </c>
       <c r="B36" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>11</v>
@@ -1757,11 +1734,11 @@
       </c>
       <c r="B37" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>11</v>
@@ -1788,11 +1765,11 @@
       </c>
       <c r="B38" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>11</v>
@@ -1813,11 +1790,11 @@
       </c>
       <c r="B39" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>12</v>
@@ -1838,7 +1815,7 @@
       </c>
       <c r="B40" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>276</v>
+        <v>148</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1863,7 +1840,7 @@
       </c>
       <c r="B41" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1888,7 +1865,7 @@
       </c>
       <c r="B42" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1913,11 +1890,11 @@
       </c>
       <c r="B43" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>12</v>
@@ -1938,7 +1915,7 @@
       </c>
       <c r="B44" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1963,7 +1940,7 @@
       </c>
       <c r="B45" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -1988,7 +1965,7 @@
       </c>
       <c r="B46" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2013,7 +1990,7 @@
       </c>
       <c r="B47" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2038,7 +2015,7 @@
       </c>
       <c r="B48" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -2210,11 +2187,11 @@
       </c>
       <c r="B59" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C59" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>11</v>
@@ -2241,7 +2218,7 @@
       </c>
       <c r="B60" s="9">
         <f t="shared" ref="B60:B73" ca="1" si="4">RANDBETWEEN(100,300)</f>
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" ref="C60:C73" ca="1" si="5">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -2272,7 +2249,7 @@
       </c>
       <c r="B61" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2303,11 +2280,11 @@
       </c>
       <c r="B62" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>11</v>
@@ -2334,7 +2311,7 @@
       </c>
       <c r="B63" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2359,7 +2336,7 @@
       </c>
       <c r="B64" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2384,11 +2361,11 @@
       </c>
       <c r="B65" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>295</v>
+        <v>197</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>12</v>
@@ -2409,11 +2386,11 @@
       </c>
       <c r="B66" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>12</v>
@@ -2434,11 +2411,11 @@
       </c>
       <c r="B67" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>12</v>
@@ -2459,7 +2436,7 @@
       </c>
       <c r="B68" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -2484,11 +2461,11 @@
       </c>
       <c r="B69" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>243</v>
+        <v>292</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>13</v>
@@ -2509,11 +2486,11 @@
       </c>
       <c r="B70" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>13</v>
@@ -2534,11 +2511,11 @@
       </c>
       <c r="B71" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>13</v>
@@ -2563,7 +2540,7 @@
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>13</v>
@@ -2584,11 +2561,11 @@
       </c>
       <c r="B73" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>221</v>
+        <v>268</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>13</v>
@@ -2756,11 +2733,11 @@
       </c>
       <c r="B84" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C84" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>11</v>
@@ -2787,7 +2764,7 @@
       </c>
       <c r="B85" s="9">
         <f t="shared" ref="B85:B98" ca="1" si="6">RANDBETWEEN(100,300)</f>
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" ref="C85:C98" ca="1" si="7">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -2818,7 +2795,7 @@
       </c>
       <c r="B86" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2849,7 +2826,7 @@
       </c>
       <c r="B87" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2880,7 +2857,7 @@
       </c>
       <c r="B88" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2905,7 +2882,7 @@
       </c>
       <c r="B89" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2930,11 +2907,11 @@
       </c>
       <c r="B90" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>12</v>
@@ -2955,7 +2932,7 @@
       </c>
       <c r="B91" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>134</v>
+        <v>209</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -2980,11 +2957,11 @@
       </c>
       <c r="B92" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>12</v>
@@ -3005,7 +2982,7 @@
       </c>
       <c r="B93" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3030,7 +3007,7 @@
       </c>
       <c r="B94" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3055,7 +3032,7 @@
       </c>
       <c r="B95" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>274</v>
+        <v>108</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3080,11 +3057,11 @@
       </c>
       <c r="B96" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>13</v>
@@ -3105,11 +3082,11 @@
       </c>
       <c r="B97" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>13</v>
@@ -3130,7 +3107,7 @@
       </c>
       <c r="B98" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -3172,7 +3149,7 @@
         <v>10</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I104" s="23"/>
       <c r="J104" s="23"/>
@@ -3302,7 +3279,7 @@
       </c>
       <c r="B109" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="C109" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -3333,11 +3310,11 @@
       </c>
       <c r="B110" s="9">
         <f t="shared" ref="B110:B123" ca="1" si="8">RANDBETWEEN(100,300)</f>
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" ref="C110:C123" ca="1" si="9">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>11</v>
@@ -3364,7 +3341,7 @@
       </c>
       <c r="B111" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3395,11 +3372,11 @@
       </c>
       <c r="B112" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>11</v>
@@ -3426,11 +3403,11 @@
       </c>
       <c r="B113" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>11</v>
@@ -3451,7 +3428,7 @@
       </c>
       <c r="B114" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>109</v>
+        <v>254</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3476,11 +3453,11 @@
       </c>
       <c r="B115" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>12</v>
@@ -3501,11 +3478,11 @@
       </c>
       <c r="B116" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D116" s="9" t="s">
         <v>12</v>
@@ -3526,11 +3503,11 @@
       </c>
       <c r="B117" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D117" s="9" t="s">
         <v>12</v>
@@ -3551,7 +3528,7 @@
       </c>
       <c r="B118" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>107</v>
+        <v>211</v>
       </c>
       <c r="C118" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3576,7 +3553,7 @@
       </c>
       <c r="B119" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="C119" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3601,11 +3578,11 @@
       </c>
       <c r="B120" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D120" s="9" t="s">
         <v>13</v>
@@ -3626,11 +3603,11 @@
       </c>
       <c r="B121" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>13</v>
@@ -3651,7 +3628,7 @@
       </c>
       <c r="B122" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>266</v>
+        <v>206</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3676,7 +3653,7 @@
       </c>
       <c r="B123" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3848,7 +3825,7 @@
       </c>
       <c r="B134" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="C134" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -3879,11 +3856,11 @@
       </c>
       <c r="B135" s="9">
         <f t="shared" ref="B135:B148" ca="1" si="10">RANDBETWEEN(100,300)</f>
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" ref="C135:C148" ca="1" si="11">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D135" s="9" t="s">
         <v>11</v>
@@ -3910,11 +3887,11 @@
       </c>
       <c r="B136" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>11</v>
@@ -3941,11 +3918,11 @@
       </c>
       <c r="B137" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C137" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>11</v>
@@ -3972,11 +3949,11 @@
       </c>
       <c r="B138" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="C138" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D138" s="9" t="s">
         <v>11</v>
@@ -3997,7 +3974,7 @@
       </c>
       <c r="B139" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>107</v>
+        <v>275</v>
       </c>
       <c r="C139" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4022,7 +3999,7 @@
       </c>
       <c r="B140" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C140" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4047,7 +4024,7 @@
       </c>
       <c r="B141" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C141" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4072,7 +4049,7 @@
       </c>
       <c r="B142" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C142" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4097,7 +4074,7 @@
       </c>
       <c r="B143" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="C143" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4122,11 +4099,11 @@
       </c>
       <c r="B144" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C144" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D144" s="9" t="s">
         <v>13</v>
@@ -4147,7 +4124,7 @@
       </c>
       <c r="B145" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4172,7 +4149,7 @@
       </c>
       <c r="B146" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C146" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
@@ -4197,11 +4174,11 @@
       </c>
       <c r="B147" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>215</v>
+        <v>152</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D147" s="9" t="s">
         <v>13</v>
@@ -4222,11 +4199,11 @@
       </c>
       <c r="B148" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>278</v>
+        <v>194</v>
       </c>
       <c r="C148" s="9" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D148" s="9" t="s">
         <v>13</v>
@@ -4394,7 +4371,7 @@
       </c>
       <c r="B159" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C159" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -4425,11 +4402,11 @@
       </c>
       <c r="B160" s="9">
         <f t="shared" ref="B160:B173" ca="1" si="12">RANDBETWEEN(100,300)</f>
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="C160" s="9" t="str">
         <f t="shared" ref="C160:C173" ca="1" si="13">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>11</v>
@@ -4456,7 +4433,7 @@
       </c>
       <c r="B161" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="C161" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4487,7 +4464,7 @@
       </c>
       <c r="B162" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C162" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4518,7 +4495,7 @@
       </c>
       <c r="B163" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C163" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4543,11 +4520,11 @@
       </c>
       <c r="B164" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="C164" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D164" s="9" t="s">
         <v>12</v>
@@ -4568,11 +4545,11 @@
       </c>
       <c r="B165" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C165" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D165" s="9" t="s">
         <v>12</v>
@@ -4593,7 +4570,7 @@
       </c>
       <c r="B166" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="C166" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4618,11 +4595,11 @@
       </c>
       <c r="B167" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>118</v>
+        <v>177</v>
       </c>
       <c r="C167" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D167" s="9" t="s">
         <v>12</v>
@@ -4643,11 +4620,11 @@
       </c>
       <c r="B168" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>162</v>
+        <v>275</v>
       </c>
       <c r="C168" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>12</v>
@@ -4668,7 +4645,7 @@
       </c>
       <c r="B169" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C169" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -4693,11 +4670,11 @@
       </c>
       <c r="B170" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>122</v>
+        <v>274</v>
       </c>
       <c r="C170" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D170" s="9" t="s">
         <v>13</v>
@@ -4718,11 +4695,11 @@
       </c>
       <c r="B171" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C171" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D171" s="9" t="s">
         <v>13</v>
@@ -4743,11 +4720,11 @@
       </c>
       <c r="B172" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>145</v>
+        <v>235</v>
       </c>
       <c r="C172" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D172" s="9" t="s">
         <v>13</v>
@@ -4768,11 +4745,11 @@
       </c>
       <c r="B173" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="C173" s="9" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>13</v>
@@ -4940,11 +4917,11 @@
       </c>
       <c r="B184" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="C184" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>11</v>
@@ -4971,11 +4948,11 @@
       </c>
       <c r="B185" s="9">
         <f t="shared" ref="B185:B198" ca="1" si="14">RANDBETWEEN(100,300)</f>
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="C185" s="9" t="str">
         <f t="shared" ref="C185:C198" ca="1" si="15">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D185" s="9" t="s">
         <v>11</v>
@@ -5002,11 +4979,11 @@
       </c>
       <c r="B186" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="C186" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>11</v>
@@ -5033,11 +5010,11 @@
       </c>
       <c r="B187" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="C187" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D187" s="9" t="s">
         <v>11</v>
@@ -5064,11 +5041,11 @@
       </c>
       <c r="B188" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="C188" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>11</v>
@@ -5089,7 +5066,7 @@
       </c>
       <c r="B189" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C189" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5114,7 +5091,7 @@
       </c>
       <c r="B190" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>118</v>
+        <v>250</v>
       </c>
       <c r="C190" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5139,7 +5116,7 @@
       </c>
       <c r="B191" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C191" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5164,7 +5141,7 @@
       </c>
       <c r="B192" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="C192" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5189,11 +5166,11 @@
       </c>
       <c r="B193" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="C193" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D193" s="9" t="s">
         <v>12</v>
@@ -5214,11 +5191,11 @@
       </c>
       <c r="B194" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="C194" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D194" s="9" t="s">
         <v>13</v>
@@ -5239,7 +5216,7 @@
       </c>
       <c r="B195" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>223</v>
+        <v>120</v>
       </c>
       <c r="C195" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5264,7 +5241,7 @@
       </c>
       <c r="B196" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="C196" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5289,7 +5266,7 @@
       </c>
       <c r="B197" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="C197" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5314,7 +5291,7 @@
       </c>
       <c r="B198" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>242</v>
+        <v>137</v>
       </c>
       <c r="C198" s="9" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5486,7 +5463,7 @@
       </c>
       <c r="B209" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C209" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -5517,11 +5494,11 @@
       </c>
       <c r="B210" s="9">
         <f t="shared" ref="B210:B223" ca="1" si="16">RANDBETWEEN(100,300)</f>
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C210" s="9" t="str">
         <f t="shared" ref="C210:C223" ca="1" si="17">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D210" s="9" t="s">
         <v>11</v>
@@ -5548,11 +5525,11 @@
       </c>
       <c r="B211" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>288</v>
+        <v>177</v>
       </c>
       <c r="C211" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D211" s="9" t="s">
         <v>11</v>
@@ -5579,7 +5556,7 @@
       </c>
       <c r="B212" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="C212" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5610,11 +5587,11 @@
       </c>
       <c r="B213" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C213" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>11</v>
@@ -5635,11 +5612,11 @@
       </c>
       <c r="B214" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="C214" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D214" s="9" t="s">
         <v>12</v>
@@ -5660,7 +5637,7 @@
       </c>
       <c r="B215" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C215" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5685,11 +5662,11 @@
       </c>
       <c r="B216" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C216" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D216" s="9" t="s">
         <v>12</v>
@@ -5710,7 +5687,7 @@
       </c>
       <c r="B217" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="C217" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5735,11 +5712,11 @@
       </c>
       <c r="B218" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="C218" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>12</v>
@@ -5760,7 +5737,7 @@
       </c>
       <c r="B219" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="C219" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5785,7 +5762,7 @@
       </c>
       <c r="B220" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="C220" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5810,7 +5787,7 @@
       </c>
       <c r="B221" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C221" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5835,7 +5812,7 @@
       </c>
       <c r="B222" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="C222" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
@@ -5860,11 +5837,11 @@
       </c>
       <c r="B223" s="9">
         <f t="shared" ca="1" si="16"/>
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="C223" s="9" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D223" s="9" t="s">
         <v>13</v>
@@ -6032,11 +6009,11 @@
       </c>
       <c r="B234" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C234" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>11</v>
@@ -6063,7 +6040,7 @@
       </c>
       <c r="B235" s="9">
         <f t="shared" ref="B235:B248" ca="1" si="18">RANDBETWEEN(100,300)</f>
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="C235" s="9" t="str">
         <f t="shared" ref="C235:C248" ca="1" si="19">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -6094,7 +6071,7 @@
       </c>
       <c r="B236" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C236" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6125,11 +6102,11 @@
       </c>
       <c r="B237" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="C237" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D237" s="9" t="s">
         <v>11</v>
@@ -6156,7 +6133,7 @@
       </c>
       <c r="B238" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C238" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6181,11 +6158,11 @@
       </c>
       <c r="B239" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C239" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>12</v>
@@ -6206,11 +6183,11 @@
       </c>
       <c r="B240" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C240" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D240" s="9" t="s">
         <v>12</v>
@@ -6231,11 +6208,11 @@
       </c>
       <c r="B241" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="C241" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D241" s="9" t="s">
         <v>12</v>
@@ -6256,7 +6233,7 @@
       </c>
       <c r="B242" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>269</v>
+        <v>167</v>
       </c>
       <c r="C242" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6281,7 +6258,7 @@
       </c>
       <c r="B243" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="C243" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6306,7 +6283,7 @@
       </c>
       <c r="B244" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="C244" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6331,7 +6308,7 @@
       </c>
       <c r="B245" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="C245" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -6356,11 +6333,11 @@
       </c>
       <c r="B246" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C246" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>13</v>
@@ -6381,11 +6358,11 @@
       </c>
       <c r="B247" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="C247" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D247" s="9" t="s">
         <v>13</v>
@@ -6406,11 +6383,11 @@
       </c>
       <c r="B248" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="C248" s="9" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>13</v>
@@ -6425,14 +6402,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5">
         <v>11</v>
       </c>
       <c r="B254" s="13">
-        <v>300</v>
-      </c>
-      <c r="C254" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C254" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="9" t="s">
@@ -6447,8 +6424,8 @@
       <c r="G254" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H254" s="23" t="s">
-        <v>27</v>
+      <c r="H254" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="I254" s="23"/>
       <c r="J254" s="23"/>
@@ -6461,10 +6438,10 @@
         <v>11</v>
       </c>
       <c r="B255" s="14">
-        <v>350</v>
-      </c>
-      <c r="C255" s="14" t="s">
-        <v>10</v>
+        <v>150</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D255" s="9" t="s">
         <v>8</v>
@@ -6492,7 +6469,7 @@
       <c r="B256" s="15">
         <v>200</v>
       </c>
-      <c r="C256" s="15" t="s">
+      <c r="C256" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="9" t="s">
@@ -6519,9 +6496,9 @@
         <v>11</v>
       </c>
       <c r="B257" s="16">
-        <v>150</v>
-      </c>
-      <c r="C257" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="C257" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="9" t="s">
@@ -6548,10 +6525,10 @@
         <v>11</v>
       </c>
       <c r="B258" s="17">
-        <v>100</v>
-      </c>
-      <c r="C258" s="17" t="s">
-        <v>10</v>
+        <v>300</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>8</v>
@@ -6578,7 +6555,7 @@
       </c>
       <c r="B259" s="9">
         <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>286</v>
+        <v>116</v>
       </c>
       <c r="C259" s="9" t="str">
         <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -6591,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="F259" s="13">
-        <v>325</v>
+        <v>5</v>
       </c>
       <c r="G259" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H259" s="23"/>
       <c r="I259" s="23"/>
@@ -6609,7 +6586,7 @@
       </c>
       <c r="B260" s="9">
         <f t="shared" ref="B260:B273" ca="1" si="20">RANDBETWEEN(100,300)</f>
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="C260" s="9" t="str">
         <f t="shared" ref="C260:C273" ca="1" si="21">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
@@ -6622,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="F260" s="14">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="G260" s="19" t="s">
         <v>10</v>
@@ -6640,7 +6617,7 @@
       </c>
       <c r="B261" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C261" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6653,10 +6630,10 @@
         <v>3</v>
       </c>
       <c r="F261" s="15">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="G261" s="20" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H261" s="23"/>
       <c r="I261" s="23"/>
@@ -6671,7 +6648,7 @@
       </c>
       <c r="B262" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>176</v>
+        <v>271</v>
       </c>
       <c r="C262" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6684,10 +6661,10 @@
         <v>4</v>
       </c>
       <c r="F262" s="16">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G262" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H262" s="23"/>
       <c r="I262" s="23"/>
@@ -6702,7 +6679,7 @@
       </c>
       <c r="B263" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C263" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6715,10 +6692,10 @@
         <v>5</v>
       </c>
       <c r="F263" s="17">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="G263" s="22" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
@@ -6727,7 +6704,7 @@
       </c>
       <c r="B264" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C264" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6740,10 +6717,10 @@
         <v>1</v>
       </c>
       <c r="F264" s="13">
-        <v>78</v>
-      </c>
-      <c r="G264" s="18" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="G264" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
@@ -6752,7 +6729,7 @@
       </c>
       <c r="B265" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="C265" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6765,9 +6742,9 @@
         <v>2</v>
       </c>
       <c r="F265" s="14">
-        <v>237</v>
-      </c>
-      <c r="G265" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G265" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6777,7 +6754,7 @@
       </c>
       <c r="B266" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="C266" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6790,10 +6767,10 @@
         <v>3</v>
       </c>
       <c r="F266" s="15">
-        <v>183</v>
-      </c>
-      <c r="G266" s="20" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="G266" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
@@ -6802,7 +6779,7 @@
       </c>
       <c r="B267" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="C267" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
@@ -6815,9 +6792,9 @@
         <v>4</v>
       </c>
       <c r="F267" s="16">
-        <v>131</v>
-      </c>
-      <c r="G267" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G267" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6827,11 +6804,11 @@
       </c>
       <c r="B268" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>249</v>
+        <v>197</v>
       </c>
       <c r="C268" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>12</v>
@@ -6840,9 +6817,9 @@
         <v>5</v>
       </c>
       <c r="F268" s="17">
-        <v>75</v>
-      </c>
-      <c r="G268" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="G268" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6852,11 +6829,11 @@
       </c>
       <c r="B269" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="C269" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>13</v>
@@ -6865,9 +6842,9 @@
         <v>1</v>
       </c>
       <c r="F269" s="13">
-        <v>79</v>
-      </c>
-      <c r="G269" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G269" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6877,11 +6854,11 @@
       </c>
       <c r="B270" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="C270" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>13</v>
@@ -6890,9 +6867,9 @@
         <v>2</v>
       </c>
       <c r="F270" s="14">
-        <v>238</v>
-      </c>
-      <c r="G270" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G270" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6902,11 +6879,11 @@
       </c>
       <c r="B271" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="C271" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D271" s="9" t="s">
         <v>13</v>
@@ -6915,10 +6892,10 @@
         <v>3</v>
       </c>
       <c r="F271" s="15">
-        <v>185</v>
-      </c>
-      <c r="G271" s="20" t="s">
-        <v>10</v>
+        <v>153</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
@@ -6927,11 +6904,11 @@
       </c>
       <c r="B272" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="C272" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D272" s="9" t="s">
         <v>13</v>
@@ -6940,9 +6917,9 @@
         <v>4</v>
       </c>
       <c r="F272" s="16">
-        <v>132</v>
-      </c>
-      <c r="G272" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G272" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6952,11 +6929,11 @@
       </c>
       <c r="B273" s="9">
         <f t="shared" ca="1" si="20"/>
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C273" s="9" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>"old"</v>
+        <v>"fresh"</v>
       </c>
       <c r="D273" s="9" t="s">
         <v>13</v>
@@ -6965,21 +6942,23 @@
         <v>5</v>
       </c>
       <c r="F273" s="17">
-        <v>76</v>
-      </c>
-      <c r="G273" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+      <c r="G273" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B279" s="13">
-        <v>100</v>
-      </c>
-      <c r="C279" s="9" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>24</v>
+      </c>
+      <c r="C279" s="13" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>8</v>
@@ -6987,14 +6966,16 @@
       <c r="E279" s="9">
         <v>1</v>
       </c>
-      <c r="F279" s="9">
-        <v>1</v>
-      </c>
-      <c r="G279" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H279" s="25" t="s">
-        <v>28</v>
+      <c r="F279" s="13">
+        <f ca="1">ROUND((RANDBETWEEN(100,150)/100)*B279,0)</f>
+        <v>36</v>
+      </c>
+      <c r="G279" s="18" t="str">
+        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
+      </c>
+      <c r="H279" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="I279" s="23"/>
       <c r="J279" s="23"/>
@@ -7004,13 +6985,15 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B280" s="14">
-        <v>150</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(60,160)</f>
+        <v>151</v>
+      </c>
+      <c r="C280" s="14" t="str">
+        <f t="shared" ref="C280:C298" ca="1" si="22">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"fresh"</v>
       </c>
       <c r="D280" s="9" t="s">
         <v>8</v>
@@ -7018,11 +7001,13 @@
       <c r="E280" s="9">
         <v>2</v>
       </c>
-      <c r="F280" s="9">
-        <v>2</v>
-      </c>
-      <c r="G280" s="12" t="s">
-        <v>10</v>
+      <c r="F280" s="14">
+        <f t="shared" ref="F280:F283" ca="1" si="23">ROUND((RANDBETWEEN(100,150)/100)*B280,0)</f>
+        <v>205</v>
+      </c>
+      <c r="G280" s="19" t="str">
+        <f t="shared" ref="G280:G298" ca="1" si="24">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <v>"old"</v>
       </c>
       <c r="H280" s="23"/>
       <c r="I280" s="23"/>
@@ -7033,13 +7018,15 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B281" s="15">
-        <v>200</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(120,220)</f>
+        <v>133</v>
+      </c>
+      <c r="C281" s="15" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>"fresh"</v>
       </c>
       <c r="D281" s="9" t="s">
         <v>8</v>
@@ -7047,11 +7034,13 @@
       <c r="E281" s="9">
         <v>3</v>
       </c>
-      <c r="F281" s="9">
-        <v>3</v>
-      </c>
-      <c r="G281" s="12" t="s">
-        <v>10</v>
+      <c r="F281" s="15">
+        <f t="shared" ca="1" si="23"/>
+        <v>152</v>
+      </c>
+      <c r="G281" s="20" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
       <c r="H281" s="23"/>
       <c r="I281" s="23"/>
@@ -7062,13 +7051,15 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B282" s="16">
-        <v>250</v>
-      </c>
-      <c r="C282" s="9" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(180,280)</f>
+        <v>225</v>
+      </c>
+      <c r="C282" s="16" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>"old"</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>8</v>
@@ -7076,11 +7067,13 @@
       <c r="E282" s="9">
         <v>4</v>
       </c>
-      <c r="F282" s="9">
-        <v>4</v>
-      </c>
-      <c r="G282" s="12" t="s">
-        <v>10</v>
+      <c r="F282" s="16">
+        <f t="shared" ca="1" si="23"/>
+        <v>254</v>
+      </c>
+      <c r="G282" s="21" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
       <c r="H282" s="23"/>
       <c r="I282" s="23"/>
@@ -7091,13 +7084,15 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B283" s="17">
-        <v>300</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(240,340)</f>
+        <v>327</v>
+      </c>
+      <c r="C283" s="17" t="str">
+        <f t="shared" ca="1" si="22"/>
+        <v>"old"</v>
       </c>
       <c r="D283" s="9" t="s">
         <v>8</v>
@@ -7105,11 +7100,13 @@
       <c r="E283" s="9">
         <v>5</v>
       </c>
-      <c r="F283" s="9">
-        <v>5</v>
-      </c>
-      <c r="G283" s="12" t="s">
-        <v>10</v>
+      <c r="F283" s="17">
+        <f t="shared" ca="1" si="23"/>
+        <v>340</v>
+      </c>
+      <c r="G283" s="22" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
       <c r="H283" s="23"/>
       <c r="I283" s="23"/>
@@ -7120,14 +7117,14 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B284" s="9">
-        <f ca="1">RANDBETWEEN(100,300)</f>
-        <v>193</v>
+        <f t="shared" ref="B284" ca="1" si="25">RANDBETWEEN(1,100)</f>
+        <v>14</v>
       </c>
       <c r="C284" s="9" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <f t="shared" ca="1" si="22"/>
         <v>"old"</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -7137,10 +7134,12 @@
         <v>1</v>
       </c>
       <c r="F284" s="13">
-        <v>5</v>
-      </c>
-      <c r="G284" s="18" t="s">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,100)</f>
+        <v>98</v>
+      </c>
+      <c r="G284" s="18" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
       <c r="H284" s="23"/>
       <c r="I284" s="23"/>
@@ -7151,14 +7150,14 @@
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B285" s="9">
-        <f t="shared" ref="B285:B298" ca="1" si="22">RANDBETWEEN(100,300)</f>
-        <v>173</v>
+        <f t="shared" ref="B285" ca="1" si="26">RANDBETWEEN(60,160)</f>
+        <v>112</v>
       </c>
       <c r="C285" s="9" t="str">
-        <f t="shared" ref="C285:C298" ca="1" si="23">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
+        <f t="shared" ca="1" si="22"/>
         <v>"old"</v>
       </c>
       <c r="D285" s="9" t="s">
@@ -7168,10 +7167,12 @@
         <v>2</v>
       </c>
       <c r="F285" s="14">
-        <v>4</v>
-      </c>
-      <c r="G285" s="19" t="s">
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(60,160)</f>
+        <v>101</v>
+      </c>
+      <c r="G285" s="19" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
       <c r="H285" s="23"/>
       <c r="I285" s="23"/>
@@ -7182,15 +7183,15 @@
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B286" s="9">
+        <f t="shared" ref="B286" ca="1" si="27">RANDBETWEEN(120,220)</f>
+        <v>213</v>
+      </c>
+      <c r="C286" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>130</v>
-      </c>
-      <c r="C286" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>11</v>
@@ -7199,10 +7200,12 @@
         <v>3</v>
       </c>
       <c r="F286" s="15">
-        <v>3</v>
-      </c>
-      <c r="G286" s="20" t="s">
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(120,220)</f>
+        <v>207</v>
+      </c>
+      <c r="G286" s="20" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
       <c r="H286" s="23"/>
       <c r="I286" s="23"/>
@@ -7213,14 +7216,14 @@
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B287" s="9">
+        <f t="shared" ref="B287" ca="1" si="28">RANDBETWEEN(180,280)</f>
+        <v>196</v>
+      </c>
+      <c r="C287" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>105</v>
-      </c>
-      <c r="C287" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"old"</v>
       </c>
       <c r="D287" s="9" t="s">
@@ -7230,10 +7233,12 @@
         <v>4</v>
       </c>
       <c r="F287" s="16">
-        <v>2</v>
-      </c>
-      <c r="G287" s="21" t="s">
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(180,280)</f>
+        <v>270</v>
+      </c>
+      <c r="G287" s="21" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
       <c r="H287" s="23"/>
       <c r="I287" s="23"/>
@@ -7244,14 +7249,14 @@
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B288" s="9">
+        <f t="shared" ref="B288" ca="1" si="29">RANDBETWEEN(240,340)</f>
+        <v>340</v>
+      </c>
+      <c r="C288" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>245</v>
-      </c>
-      <c r="C288" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"old"</v>
       </c>
       <c r="D288" s="9" t="s">
@@ -7261,22 +7266,24 @@
         <v>5</v>
       </c>
       <c r="F288" s="17">
-        <v>1</v>
-      </c>
-      <c r="G288" s="22" t="s">
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(240,340)</f>
+        <v>271</v>
+      </c>
+      <c r="G288" s="22" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B289" s="9">
+        <f t="shared" ref="B289" ca="1" si="30">RANDBETWEEN(1,100)</f>
+        <v>15</v>
+      </c>
+      <c r="C289" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>115</v>
-      </c>
-      <c r="C289" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"fresh"</v>
       </c>
       <c r="D289" s="9" t="s">
@@ -7286,22 +7293,24 @@
         <v>1</v>
       </c>
       <c r="F289" s="13">
-        <v>50</v>
-      </c>
-      <c r="G289" s="12" t="s">
-        <v>9</v>
+        <f t="shared" ref="F289" ca="1" si="31">RANDBETWEEN(1,100)</f>
+        <v>54</v>
+      </c>
+      <c r="G289" s="18" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B290" s="9">
+        <f t="shared" ref="B290" ca="1" si="32">RANDBETWEEN(60,160)</f>
+        <v>117</v>
+      </c>
+      <c r="C290" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>140</v>
-      </c>
-      <c r="C290" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"old"</v>
       </c>
       <c r="D290" s="9" t="s">
@@ -7311,23 +7320,25 @@
         <v>2</v>
       </c>
       <c r="F290" s="14">
-        <v>101</v>
-      </c>
-      <c r="G290" s="12" t="s">
-        <v>9</v>
+        <f t="shared" ref="F290" ca="1" si="33">RANDBETWEEN(60,160)</f>
+        <v>131</v>
+      </c>
+      <c r="G290" s="19" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B291" s="9">
+        <f t="shared" ref="B291" ca="1" si="34">RANDBETWEEN(120,220)</f>
+        <v>196</v>
+      </c>
+      <c r="C291" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>242</v>
-      </c>
-      <c r="C291" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D291" s="9" t="s">
         <v>12</v>
@@ -7336,22 +7347,24 @@
         <v>3</v>
       </c>
       <c r="F291" s="15">
-        <v>152</v>
-      </c>
-      <c r="G291" s="12" t="s">
-        <v>9</v>
+        <f t="shared" ref="F291" ca="1" si="35">RANDBETWEEN(120,220)</f>
+        <v>126</v>
+      </c>
+      <c r="G291" s="20" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B292" s="9">
+        <f t="shared" ref="B292" ca="1" si="36">RANDBETWEEN(180,280)</f>
+        <v>209</v>
+      </c>
+      <c r="C292" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>157</v>
-      </c>
-      <c r="C292" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"old"</v>
       </c>
       <c r="D292" s="9" t="s">
@@ -7361,23 +7374,25 @@
         <v>4</v>
       </c>
       <c r="F292" s="16">
-        <v>203</v>
-      </c>
-      <c r="G292" s="12" t="s">
-        <v>9</v>
+        <f t="shared" ref="F292" ca="1" si="37">RANDBETWEEN(180,280)</f>
+        <v>270</v>
+      </c>
+      <c r="G292" s="21" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B293" s="9">
+        <f t="shared" ref="B293" ca="1" si="38">RANDBETWEEN(240,340)</f>
+        <v>306</v>
+      </c>
+      <c r="C293" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>254</v>
-      </c>
-      <c r="C293" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D293" s="9" t="s">
         <v>12</v>
@@ -7386,23 +7401,25 @@
         <v>5</v>
       </c>
       <c r="F293" s="17">
-        <v>254</v>
-      </c>
-      <c r="G293" s="9" t="s">
-        <v>9</v>
+        <f t="shared" ref="F293" ca="1" si="39">RANDBETWEEN(240,340)</f>
+        <v>258</v>
+      </c>
+      <c r="G293" s="22" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B294" s="9">
+        <f t="shared" ref="B294" ca="1" si="40">RANDBETWEEN(1,100)</f>
+        <v>63</v>
+      </c>
+      <c r="C294" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>184</v>
-      </c>
-      <c r="C294" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D294" s="9" t="s">
         <v>13</v>
@@ -7411,22 +7428,24 @@
         <v>1</v>
       </c>
       <c r="F294" s="13">
-        <v>51</v>
-      </c>
-      <c r="G294" s="9" t="s">
-        <v>9</v>
+        <f t="shared" ref="F294" ca="1" si="41">RANDBETWEEN(1,100)</f>
+        <v>66</v>
+      </c>
+      <c r="G294" s="18" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B295" s="9">
+        <f t="shared" ref="B295" ca="1" si="42">RANDBETWEEN(60,160)</f>
+        <v>117</v>
+      </c>
+      <c r="C295" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>213</v>
-      </c>
-      <c r="C295" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"fresh"</v>
       </c>
       <c r="D295" s="9" t="s">
@@ -7436,22 +7455,24 @@
         <v>2</v>
       </c>
       <c r="F295" s="14">
-        <v>102</v>
-      </c>
-      <c r="G295" s="9" t="s">
-        <v>9</v>
+        <f t="shared" ref="F295" ca="1" si="43">RANDBETWEEN(60,160)</f>
+        <v>69</v>
+      </c>
+      <c r="G295" s="19" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B296" s="9">
+        <f t="shared" ref="B296" ca="1" si="44">RANDBETWEEN(120,220)</f>
+        <v>194</v>
+      </c>
+      <c r="C296" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>239</v>
-      </c>
-      <c r="C296" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"old"</v>
       </c>
       <c r="D296" s="9" t="s">
@@ -7461,22 +7482,24 @@
         <v>3</v>
       </c>
       <c r="F296" s="15">
-        <v>153</v>
-      </c>
-      <c r="G296" s="9" t="s">
-        <v>9</v>
+        <f t="shared" ref="F296" ca="1" si="45">RANDBETWEEN(120,220)</f>
+        <v>204</v>
+      </c>
+      <c r="G296" s="20" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B297" s="9">
+        <f t="shared" ref="B297" ca="1" si="46">RANDBETWEEN(180,280)</f>
+        <v>186</v>
+      </c>
+      <c r="C297" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>159</v>
-      </c>
-      <c r="C297" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
         <v>"fresh"</v>
       </c>
       <c r="D297" s="9" t="s">
@@ -7486,23 +7509,25 @@
         <v>4</v>
       </c>
       <c r="F297" s="16">
-        <v>204</v>
-      </c>
-      <c r="G297" s="9" t="s">
-        <v>9</v>
+        <f t="shared" ref="F297" ca="1" si="47">RANDBETWEEN(180,280)</f>
+        <v>223</v>
+      </c>
+      <c r="G297" s="21" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"old"</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="5">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="B298" s="9">
+        <f t="shared" ref="B298" ca="1" si="48">RANDBETWEEN(240,340)</f>
+        <v>290</v>
+      </c>
+      <c r="C298" s="9" t="str">
         <f t="shared" ca="1" si="22"/>
-        <v>120</v>
-      </c>
-      <c r="C298" s="9" t="str">
-        <f t="shared" ca="1" si="23"/>
-        <v>"fresh"</v>
+        <v>"old"</v>
       </c>
       <c r="D298" s="9" t="s">
         <v>13</v>
@@ -7511,1071 +7536,477 @@
         <v>5</v>
       </c>
       <c r="F298" s="17">
+        <f t="shared" ref="F298" ca="1" si="49">RANDBETWEEN(240,340)</f>
+        <v>323</v>
+      </c>
+      <c r="G298" s="22" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v>"fresh"</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B304" s="13">
+        <v>30</v>
+      </c>
+      <c r="C304" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="9">
+        <v>1</v>
+      </c>
+      <c r="F304" s="13">
+        <v>30</v>
+      </c>
+      <c r="G304" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B305" s="14">
+        <v>89</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="9">
+        <v>2</v>
+      </c>
+      <c r="F305" s="14">
+        <v>106</v>
+      </c>
+      <c r="G305" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B306" s="15">
+        <v>190</v>
+      </c>
+      <c r="C306" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="9">
+        <v>3</v>
+      </c>
+      <c r="F306" s="15">
+        <v>215</v>
+      </c>
+      <c r="G306" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B307" s="16">
+        <v>279</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="9">
+        <v>4</v>
+      </c>
+      <c r="F307" s="16">
+        <v>405</v>
+      </c>
+      <c r="G307" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B308" s="17">
+        <v>315</v>
+      </c>
+      <c r="C308" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="9">
+        <v>5</v>
+      </c>
+      <c r="F308" s="17">
+        <v>347</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B309" s="9">
+        <v>46</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" s="9">
+        <v>1</v>
+      </c>
+      <c r="F309" s="13">
+        <v>31</v>
+      </c>
+      <c r="G309" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B310" s="9">
+        <v>111</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" s="9">
+        <v>2</v>
+      </c>
+      <c r="F310" s="14">
+        <v>76</v>
+      </c>
+      <c r="G310" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B311" s="9">
+        <v>212</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" s="9">
+        <v>3</v>
+      </c>
+      <c r="F311" s="15">
+        <v>139</v>
+      </c>
+      <c r="G311" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B312" s="9">
+        <v>181</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" s="9">
+        <v>4</v>
+      </c>
+      <c r="F312" s="16">
+        <v>245</v>
+      </c>
+      <c r="G312" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B313" s="9">
+        <v>326</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D313" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" s="9">
+        <v>5</v>
+      </c>
+      <c r="F313" s="17">
         <v>255</v>
       </c>
-      <c r="G298" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A336" s="5">
+      <c r="G313" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="5">
         <v>-1</v>
       </c>
-      <c r="B336" s="13">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>8</v>
-      </c>
-      <c r="C336" s="13" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
-      </c>
-      <c r="D336" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E336" s="9">
-        <v>1</v>
-      </c>
-      <c r="F336" s="13">
-        <f ca="1">ROUND((RANDBETWEEN(1,100)/100)*B336,0)</f>
-        <v>6</v>
-      </c>
-      <c r="G336" s="18" t="str">
-        <f ca="1">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"fresh"</v>
-      </c>
-      <c r="H336" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I336" s="23"/>
-      <c r="J336" s="23"/>
-      <c r="K336" s="23"/>
-      <c r="L336" s="23"/>
-      <c r="M336" s="23"/>
-    </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A337" s="5">
+      <c r="B314" s="9">
+        <v>19</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D314" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E314" s="9">
+        <v>1</v>
+      </c>
+      <c r="F314" s="13">
+        <v>45</v>
+      </c>
+      <c r="G314" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="5">
         <v>-1</v>
       </c>
-      <c r="B337" s="14">
-        <f ca="1">RANDBETWEEN(60,160)</f>
-        <v>123</v>
-      </c>
-      <c r="C337" s="14" t="str">
-        <f t="shared" ref="C337:C355" ca="1" si="24">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
-      </c>
-      <c r="D337" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E337" s="9">
-        <v>2</v>
-      </c>
-      <c r="F337" s="14">
-        <f t="shared" ref="F337:F340" ca="1" si="25">ROUND((RANDBETWEEN(1,100)/100)*B337,0)</f>
-        <v>77</v>
-      </c>
-      <c r="G337" s="19" t="str">
-        <f t="shared" ref="G337:G355" ca="1" si="26">CHOOSE(RANDBETWEEN(1,2),$M$2,$N$2)</f>
-        <v>"old"</v>
-      </c>
-      <c r="H337" s="23"/>
-      <c r="I337" s="23"/>
-      <c r="J337" s="23"/>
-      <c r="K337" s="23"/>
-      <c r="L337" s="23"/>
-      <c r="M337" s="23"/>
-    </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A338" s="5">
+      <c r="B315" s="9">
+        <v>160</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D315" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E315" s="9">
+        <v>2</v>
+      </c>
+      <c r="F315" s="14">
+        <v>68</v>
+      </c>
+      <c r="G315" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="5">
         <v>-1</v>
       </c>
-      <c r="B338" s="15">
-        <f ca="1">RANDBETWEEN(120,220)</f>
-        <v>147</v>
-      </c>
-      <c r="C338" s="15" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D338" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E338" s="9">
-        <v>3</v>
-      </c>
-      <c r="F338" s="15">
-        <f t="shared" ca="1" si="25"/>
-        <v>101</v>
-      </c>
-      <c r="G338" s="20" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="H338" s="23"/>
-      <c r="I338" s="23"/>
-      <c r="J338" s="23"/>
-      <c r="K338" s="23"/>
-      <c r="L338" s="23"/>
-      <c r="M338" s="23"/>
-    </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A339" s="5">
+      <c r="B316" s="9">
+        <v>210</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D316" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E316" s="9">
+        <v>3</v>
+      </c>
+      <c r="F316" s="15">
+        <v>181</v>
+      </c>
+      <c r="G316" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="5">
         <v>-1</v>
       </c>
-      <c r="B339" s="16">
-        <f ca="1">RANDBETWEEN(180,280)</f>
-        <v>262</v>
-      </c>
-      <c r="C339" s="16" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D339" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E339" s="9">
-        <v>4</v>
-      </c>
-      <c r="F339" s="16">
-        <f t="shared" ca="1" si="25"/>
-        <v>212</v>
-      </c>
-      <c r="G339" s="21" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="H339" s="23"/>
-      <c r="I339" s="23"/>
-      <c r="J339" s="23"/>
-      <c r="K339" s="23"/>
-      <c r="L339" s="23"/>
-      <c r="M339" s="23"/>
-    </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A340" s="5">
+      <c r="B317" s="9">
+        <v>183</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E317" s="9">
+        <v>4</v>
+      </c>
+      <c r="F317" s="16">
+        <v>277</v>
+      </c>
+      <c r="G317" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="5">
         <v>-1</v>
       </c>
-      <c r="B340" s="17">
-        <f ca="1">RANDBETWEEN(240,340)</f>
-        <v>274</v>
-      </c>
-      <c r="C340" s="17" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D340" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E340" s="9">
-        <v>5</v>
-      </c>
-      <c r="F340" s="17">
-        <f t="shared" ca="1" si="25"/>
-        <v>203</v>
-      </c>
-      <c r="G340" s="22" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-      <c r="H340" s="23"/>
-      <c r="I340" s="23"/>
-      <c r="J340" s="23"/>
-      <c r="K340" s="23"/>
-      <c r="L340" s="23"/>
-      <c r="M340" s="23"/>
-    </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A341" s="5">
+      <c r="B318" s="9">
+        <v>318</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E318" s="9">
+        <v>5</v>
+      </c>
+      <c r="F318" s="17">
+        <v>333</v>
+      </c>
+      <c r="G318" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="5">
         <v>-1</v>
       </c>
-      <c r="B341" s="9">
-        <f t="shared" ref="B341" ca="1" si="27">RANDBETWEEN(1,100)</f>
-        <v>2</v>
-      </c>
-      <c r="C341" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D341" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E341" s="9">
-        <v>1</v>
-      </c>
-      <c r="F341" s="13">
-        <f ca="1">RANDBETWEEN(1,100)</f>
-        <v>31</v>
-      </c>
-      <c r="G341" s="18" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-      <c r="H341" s="23"/>
-      <c r="I341" s="23"/>
-      <c r="J341" s="23"/>
-      <c r="K341" s="23"/>
-      <c r="L341" s="23"/>
-      <c r="M341" s="23"/>
-    </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A342" s="5">
+      <c r="B319" s="9">
+        <v>91</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E319" s="9">
+        <v>1</v>
+      </c>
+      <c r="F319" s="13">
+        <v>52</v>
+      </c>
+      <c r="G319" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="5">
         <v>-1</v>
       </c>
-      <c r="B342" s="9">
-        <f t="shared" ref="B342" ca="1" si="28">RANDBETWEEN(60,160)</f>
-        <v>138</v>
-      </c>
-      <c r="C342" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D342" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E342" s="9">
-        <v>2</v>
-      </c>
-      <c r="F342" s="14">
-        <f ca="1">RANDBETWEEN(60,160)</f>
-        <v>72</v>
-      </c>
-      <c r="G342" s="19" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-      <c r="H342" s="23"/>
-      <c r="I342" s="23"/>
-      <c r="J342" s="23"/>
-      <c r="K342" s="23"/>
-      <c r="L342" s="23"/>
-      <c r="M342" s="23"/>
-    </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A343" s="5">
+      <c r="B320" s="9">
+        <v>87</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E320" s="9">
+        <v>2</v>
+      </c>
+      <c r="F320" s="14">
+        <v>62</v>
+      </c>
+      <c r="G320" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321" s="5">
         <v>-1</v>
       </c>
-      <c r="B343" s="9">
-        <f t="shared" ref="B343" ca="1" si="29">RANDBETWEEN(120,220)</f>
-        <v>183</v>
-      </c>
-      <c r="C343" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D343" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E343" s="9">
-        <v>3</v>
-      </c>
-      <c r="F343" s="15">
-        <f ca="1">RANDBETWEEN(120,220)</f>
-        <v>179</v>
-      </c>
-      <c r="G343" s="20" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="H343" s="23"/>
-      <c r="I343" s="23"/>
-      <c r="J343" s="23"/>
-      <c r="K343" s="23"/>
-      <c r="L343" s="23"/>
-      <c r="M343" s="23"/>
-    </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A344" s="5">
+      <c r="B321" s="9">
+        <v>173</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E321" s="9">
+        <v>3</v>
+      </c>
+      <c r="F321" s="15">
+        <v>142</v>
+      </c>
+      <c r="G321" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="5">
         <v>-1</v>
       </c>
-      <c r="B344" s="9">
-        <f t="shared" ref="B344" ca="1" si="30">RANDBETWEEN(180,280)</f>
-        <v>244</v>
-      </c>
-      <c r="C344" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D344" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E344" s="9">
-        <v>4</v>
-      </c>
-      <c r="F344" s="16">
-        <f ca="1">RANDBETWEEN(180,280)</f>
-        <v>259</v>
-      </c>
-      <c r="G344" s="21" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-      <c r="H344" s="23"/>
-      <c r="I344" s="23"/>
-      <c r="J344" s="23"/>
-      <c r="K344" s="23"/>
-      <c r="L344" s="23"/>
-      <c r="M344" s="23"/>
-    </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A345" s="5">
+      <c r="B322" s="9">
+        <v>253</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E322" s="9">
+        <v>4</v>
+      </c>
+      <c r="F322" s="16">
+        <v>185</v>
+      </c>
+      <c r="G322" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="5">
         <v>-1</v>
       </c>
-      <c r="B345" s="9">
-        <f t="shared" ref="B345" ca="1" si="31">RANDBETWEEN(240,340)</f>
-        <v>261</v>
-      </c>
-      <c r="C345" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D345" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E345" s="9">
-        <v>5</v>
-      </c>
-      <c r="F345" s="17">
-        <f ca="1">RANDBETWEEN(240,340)</f>
-        <v>275</v>
-      </c>
-      <c r="G345" s="22" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A346" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B346" s="9">
-        <f t="shared" ref="B346" ca="1" si="32">RANDBETWEEN(1,100)</f>
-        <v>10</v>
-      </c>
-      <c r="C346" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D346" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E346" s="9">
-        <v>1</v>
-      </c>
-      <c r="F346" s="13">
-        <f t="shared" ref="F346" ca="1" si="33">RANDBETWEEN(1,100)</f>
-        <v>58</v>
-      </c>
-      <c r="G346" s="18" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A347" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B347" s="9">
-        <f t="shared" ref="B347" ca="1" si="34">RANDBETWEEN(60,160)</f>
-        <v>68</v>
-      </c>
-      <c r="C347" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D347" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E347" s="9">
-        <v>2</v>
-      </c>
-      <c r="F347" s="14">
-        <f t="shared" ref="F347" ca="1" si="35">RANDBETWEEN(60,160)</f>
-        <v>107</v>
-      </c>
-      <c r="G347" s="19" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A348" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B348" s="9">
-        <f t="shared" ref="B348" ca="1" si="36">RANDBETWEEN(120,220)</f>
-        <v>168</v>
-      </c>
-      <c r="C348" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D348" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E348" s="9">
-        <v>3</v>
-      </c>
-      <c r="F348" s="15">
-        <f t="shared" ref="F348" ca="1" si="37">RANDBETWEEN(120,220)</f>
-        <v>159</v>
-      </c>
-      <c r="G348" s="20" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A349" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B349" s="9">
-        <f t="shared" ref="B349" ca="1" si="38">RANDBETWEEN(180,280)</f>
-        <v>256</v>
-      </c>
-      <c r="C349" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D349" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E349" s="9">
-        <v>4</v>
-      </c>
-      <c r="F349" s="16">
-        <f t="shared" ref="F349" ca="1" si="39">RANDBETWEEN(180,280)</f>
-        <v>267</v>
-      </c>
-      <c r="G349" s="21" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A350" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B350" s="9">
-        <f t="shared" ref="B350" ca="1" si="40">RANDBETWEEN(240,340)</f>
-        <v>243</v>
-      </c>
-      <c r="C350" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D350" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E350" s="9">
-        <v>5</v>
-      </c>
-      <c r="F350" s="17">
-        <f t="shared" ref="F350" ca="1" si="41">RANDBETWEEN(240,340)</f>
-        <v>269</v>
-      </c>
-      <c r="G350" s="22" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A351" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B351" s="9">
-        <f t="shared" ref="B351" ca="1" si="42">RANDBETWEEN(1,100)</f>
-        <v>65</v>
-      </c>
-      <c r="C351" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"old"</v>
-      </c>
-      <c r="D351" s="9" t="s">
+      <c r="B323" s="9">
+        <v>308</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D323" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="9">
-        <v>1</v>
-      </c>
-      <c r="F351" s="13">
-        <f t="shared" ref="F351" ca="1" si="43">RANDBETWEEN(1,100)</f>
-        <v>91</v>
-      </c>
-      <c r="G351" s="18" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A352" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B352" s="9">
-        <f t="shared" ref="B352" ca="1" si="44">RANDBETWEEN(60,160)</f>
-        <v>101</v>
-      </c>
-      <c r="C352" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D352" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E352" s="9">
-        <v>2</v>
-      </c>
-      <c r="F352" s="14">
-        <f t="shared" ref="F352" ca="1" si="45">RANDBETWEEN(60,160)</f>
-        <v>92</v>
-      </c>
-      <c r="G352" s="19" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B353" s="9">
-        <f t="shared" ref="B353" ca="1" si="46">RANDBETWEEN(120,220)</f>
-        <v>212</v>
-      </c>
-      <c r="C353" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D353" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E353" s="9">
-        <v>3</v>
-      </c>
-      <c r="F353" s="15">
-        <f t="shared" ref="F353" ca="1" si="47">RANDBETWEEN(120,220)</f>
-        <v>188</v>
-      </c>
-      <c r="G353" s="20" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"old"</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A354" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B354" s="9">
-        <f t="shared" ref="B354" ca="1" si="48">RANDBETWEEN(180,280)</f>
-        <v>230</v>
-      </c>
-      <c r="C354" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D354" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E354" s="9">
-        <v>4</v>
-      </c>
-      <c r="F354" s="16">
-        <f t="shared" ref="F354" ca="1" si="49">RANDBETWEEN(180,280)</f>
-        <v>264</v>
-      </c>
-      <c r="G354" s="21" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A355" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B355" s="9">
-        <f t="shared" ref="B355" ca="1" si="50">RANDBETWEEN(240,340)</f>
-        <v>265</v>
-      </c>
-      <c r="C355" s="9" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v>"fresh"</v>
-      </c>
-      <c r="D355" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E355" s="9">
-        <v>5</v>
-      </c>
-      <c r="F355" s="17">
-        <f t="shared" ref="F355" ca="1" si="51">RANDBETWEEN(240,340)</f>
-        <v>336</v>
-      </c>
-      <c r="G355" s="22" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>"fresh"</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A361" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B361" s="13">
-        <v>31</v>
-      </c>
-      <c r="C361" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D361" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E361" s="9">
-        <v>1</v>
-      </c>
-      <c r="F361" s="13">
-        <v>25</v>
-      </c>
-      <c r="G361" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A362" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B362" s="14">
-        <v>66</v>
-      </c>
-      <c r="C362" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D362" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E362" s="9">
-        <v>2</v>
-      </c>
-      <c r="F362" s="14">
-        <v>61</v>
-      </c>
-      <c r="G362" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B363" s="15">
-        <v>198</v>
-      </c>
-      <c r="C363" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D363" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E363" s="9">
-        <v>3</v>
-      </c>
-      <c r="F363" s="15">
-        <v>40</v>
-      </c>
-      <c r="G363" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B364" s="16">
-        <v>260</v>
-      </c>
-      <c r="C364" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D364" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E364" s="9">
-        <v>4</v>
-      </c>
-      <c r="F364" s="16">
-        <v>229</v>
-      </c>
-      <c r="G364" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B365" s="17">
-        <v>316</v>
-      </c>
-      <c r="C365" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D365" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E365" s="9">
-        <v>5</v>
-      </c>
-      <c r="F365" s="17">
-        <v>183</v>
-      </c>
-      <c r="G365" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B366" s="9">
-        <v>77</v>
-      </c>
-      <c r="C366" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D366" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E366" s="9">
-        <v>1</v>
-      </c>
-      <c r="F366" s="13">
-        <v>8</v>
-      </c>
-      <c r="G366" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A367" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B367" s="9">
-        <v>85</v>
-      </c>
-      <c r="C367" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D367" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E367" s="9">
-        <v>2</v>
-      </c>
-      <c r="F367" s="14">
-        <v>144</v>
-      </c>
-      <c r="G367" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A368" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B368" s="9">
-        <v>139</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D368" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E368" s="9">
-        <v>3</v>
-      </c>
-      <c r="F368" s="15">
-        <v>153</v>
-      </c>
-      <c r="G368" s="20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A369" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B369" s="9">
-        <v>215</v>
-      </c>
-      <c r="C369" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D369" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E369" s="9">
-        <v>4</v>
-      </c>
-      <c r="F369" s="16">
-        <v>224</v>
-      </c>
-      <c r="G369" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A370" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B370" s="9">
-        <v>253</v>
-      </c>
-      <c r="C370" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D370" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E370" s="9">
-        <v>5</v>
-      </c>
-      <c r="F370" s="17">
-        <v>288</v>
-      </c>
-      <c r="G370" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A371" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B371" s="9">
-        <v>39</v>
-      </c>
-      <c r="C371" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D371" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E371" s="9">
-        <v>1</v>
-      </c>
-      <c r="F371" s="13">
-        <v>25</v>
-      </c>
-      <c r="G371" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A372" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B372" s="9">
-        <v>75</v>
-      </c>
-      <c r="C372" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D372" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E372" s="9">
-        <v>2</v>
-      </c>
-      <c r="F372" s="14">
-        <v>151</v>
-      </c>
-      <c r="G372" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A373" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B373" s="9">
-        <v>165</v>
-      </c>
-      <c r="C373" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D373" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E373" s="9">
-        <v>3</v>
-      </c>
-      <c r="F373" s="15">
-        <v>121</v>
-      </c>
-      <c r="G373" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A374" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B374" s="9">
-        <v>249</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D374" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E374" s="9">
-        <v>4</v>
-      </c>
-      <c r="F374" s="16">
-        <v>247</v>
-      </c>
-      <c r="G374" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A375" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B375" s="9">
-        <v>308</v>
-      </c>
-      <c r="C375" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D375" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E375" s="9">
-        <v>5</v>
-      </c>
-      <c r="F375" s="17">
-        <v>249</v>
-      </c>
-      <c r="G375" s="22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A376" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B376" s="9">
-        <v>62</v>
-      </c>
-      <c r="C376" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D376" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E376" s="9">
-        <v>1</v>
-      </c>
-      <c r="F376" s="13">
-        <v>65</v>
-      </c>
-      <c r="G376" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A377" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B377" s="9">
-        <v>119</v>
-      </c>
-      <c r="C377" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D377" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E377" s="9">
-        <v>2</v>
-      </c>
-      <c r="F377" s="14">
-        <v>81</v>
-      </c>
-      <c r="G377" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A378" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B378" s="9">
-        <v>208</v>
-      </c>
-      <c r="C378" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D378" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E378" s="9">
-        <v>3</v>
-      </c>
-      <c r="F378" s="15">
-        <v>145</v>
-      </c>
-      <c r="G378" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A379" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B379" s="9">
-        <v>276</v>
-      </c>
-      <c r="C379" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D379" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E379" s="9">
-        <v>4</v>
-      </c>
-      <c r="F379" s="16">
-        <v>195</v>
-      </c>
-      <c r="G379" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A380" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B380" s="9">
-        <v>253</v>
-      </c>
-      <c r="C380" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D380" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E380" s="9">
-        <v>5</v>
-      </c>
-      <c r="F380" s="17">
-        <v>245</v>
-      </c>
-      <c r="G380" s="22" t="s">
+      <c r="E323" s="9">
+        <v>5</v>
+      </c>
+      <c r="F323" s="17">
+        <v>250</v>
+      </c>
+      <c r="G323" s="22" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H336:M344"/>
+  <mergeCells count="12">
+    <mergeCell ref="H279:M287"/>
     <mergeCell ref="H4:M12"/>
     <mergeCell ref="H29:M37"/>
     <mergeCell ref="H54:M62"/>
@@ -8587,7 +8018,6 @@
     <mergeCell ref="H179:M187"/>
     <mergeCell ref="H204:M212"/>
     <mergeCell ref="H229:M237"/>
-    <mergeCell ref="H279:M287"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
